--- a/summaries/trials/UPHS/variantSummary.xlsx
+++ b/summaries/trials/UPHS/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -56,6 +56,15 @@
     <t xml:space="preserve">silent</t>
   </si>
   <si>
+    <t xml:space="preserve">C3037T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14408T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P314L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28144T</t>
   </si>
   <si>
@@ -65,15 +74,6 @@
     <t xml:space="preserve">S84L</t>
   </si>
   <si>
-    <t xml:space="preserve">C3037T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14408T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P314L</t>
-  </si>
-  <si>
     <t xml:space="preserve">T8782C</t>
   </si>
   <si>
@@ -101,21 +101,21 @@
     <t xml:space="preserve">M1596I</t>
   </si>
   <si>
+    <t xml:space="preserve">C18877T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G21986A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G142S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11916T</t>
   </si>
   <si>
     <t xml:space="preserve">S3884L</t>
   </si>
   <si>
-    <t xml:space="preserve">C18877T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G21986A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G142S</t>
-  </si>
-  <si>
     <t xml:space="preserve">A20268G</t>
   </si>
   <si>
@@ -134,36 +134,36 @@
     <t xml:space="preserve">S194L</t>
   </si>
   <si>
+    <t xml:space="preserve">G29540A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1578C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V438A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6618A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2118D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7833C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2523T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10741T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C18998T</t>
   </si>
   <si>
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
-    <t xml:space="preserve">G29540A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1578C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V438A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G6618A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2118D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7833C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2523T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10741T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C23604A</t>
   </si>
   <si>
@@ -299,93 +299,93 @@
     <t xml:space="preserve">L3352F</t>
   </si>
   <si>
+    <t xml:space="preserve">C11591T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3776F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12513T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4083M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15857T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T797I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G17122T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1219S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A18650T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1728V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A26069G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E226G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27964T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28609T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29614T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C157T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2219G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I652V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2262T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T666I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2342G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I693V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2416T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5570G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1769V</t>
+  </si>
+  <si>
     <t xml:space="preserve">T10665C</t>
   </si>
   <si>
     <t xml:space="preserve">V3467A</t>
   </si>
   <si>
-    <t xml:space="preserve">C11591T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3776F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C12513T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4083M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15857T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T797I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G17122T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1219S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A18650T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1728V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A26069G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E226G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27964T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28609T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29614T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C157T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2219G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I652V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2262T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T666I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2342G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I693V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2416T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5570G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1769V</t>
-  </si>
-  <si>
     <t xml:space="preserve">G13975T</t>
   </si>
   <si>
@@ -681,12 +681,6 @@
   </si>
   <si>
     <t xml:space="preserve">G7393T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7626G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2454S</t>
   </si>
   <si>
     <t xml:space="preserve">G7798T</t>
@@ -1655,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -1672,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -1689,58 +1683,58 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28144</v>
+        <v>3037</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3037</v>
+        <v>14408</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14408</v>
+        <v>28144</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -1757,7 +1751,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1774,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -1791,7 +1785,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -1830,7 +1824,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11916</v>
+        <v>18877</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -1839,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -1847,16 +1841,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18877</v>
+        <v>21986</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -1864,19 +1858,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21986</v>
+        <v>11916</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1932,16 +1926,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18998</v>
+        <v>29540</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1949,24 +1943,24 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29540</v>
+        <v>1578</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1578</v>
+        <v>6618</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -1983,7 +1977,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6618</v>
+        <v>7833</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -2000,7 +1994,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7833</v>
+        <v>10741</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -2009,7 +2003,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2017,16 +2011,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10741</v>
+        <v>18998</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2397,7 +2391,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>84</v>
@@ -2510,7 +2504,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10665</v>
+        <v>11591</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
@@ -2527,7 +2521,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11591</v>
+        <v>12513</v>
       </c>
       <c r="B54" t="s">
         <v>97</v>
@@ -2544,7 +2538,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12513</v>
+        <v>15857</v>
       </c>
       <c r="B55" t="s">
         <v>99</v>
@@ -2561,7 +2555,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15857</v>
+        <v>17122</v>
       </c>
       <c r="B56" t="s">
         <v>101</v>
@@ -2578,7 +2572,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17122</v>
+        <v>18650</v>
       </c>
       <c r="B57" t="s">
         <v>103</v>
@@ -2595,13 +2589,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18650</v>
+        <v>26069</v>
       </c>
       <c r="B58" t="s">
         <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
         <v>106</v>
@@ -2612,13 +2606,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>26069</v>
+        <v>27964</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -2629,16 +2623,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27964</v>
+        <v>28609</v>
       </c>
       <c r="B60" t="s">
         <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
@@ -2646,13 +2640,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>28609</v>
+        <v>29614</v>
       </c>
       <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
         <v>111</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2663,33 +2657,33 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29614</v>
+        <v>157</v>
       </c>
       <c r="B62" t="s">
         <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>157</v>
+        <v>2219</v>
       </c>
       <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
         <v>114</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -2697,7 +2691,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2219</v>
+        <v>2262</v>
       </c>
       <c r="B64" t="s">
         <v>115</v>
@@ -2714,7 +2708,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2262</v>
+        <v>2342</v>
       </c>
       <c r="B65" t="s">
         <v>117</v>
@@ -2731,7 +2725,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2342</v>
+        <v>2416</v>
       </c>
       <c r="B66" t="s">
         <v>119</v>
@@ -2740,7 +2734,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -2748,16 +2742,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2416</v>
+        <v>5570</v>
       </c>
       <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
         <v>121</v>
-      </c>
-      <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -2765,7 +2759,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5570</v>
+        <v>10665</v>
       </c>
       <c r="B68" t="s">
         <v>122</v>
@@ -2941,7 +2935,7 @@
         <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>141</v>
@@ -3819,7 +3813,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7626</v>
+        <v>7798</v>
       </c>
       <c r="B130" t="s">
         <v>223</v>
@@ -3836,7 +3830,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7798</v>
+        <v>7834</v>
       </c>
       <c r="B131" t="s">
         <v>225</v>
@@ -3845,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -3853,10 +3847,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7834</v>
+        <v>7975</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
@@ -3870,10 +3864,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>7975</v>
+        <v>8047</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -3887,16 +3881,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8047</v>
+        <v>8083</v>
       </c>
       <c r="B134" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
         <v>229</v>
-      </c>
-      <c r="C134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" t="s">
-        <v>13</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -3904,7 +3898,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8083</v>
+        <v>8140</v>
       </c>
       <c r="B135" t="s">
         <v>230</v>
@@ -3913,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -3921,16 +3915,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8140</v>
+        <v>8304</v>
       </c>
       <c r="B136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -3938,16 +3932,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8304</v>
+        <v>8344</v>
       </c>
       <c r="B137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -3955,16 +3949,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8344</v>
+        <v>8537</v>
       </c>
       <c r="B138" t="s">
+        <v>233</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
         <v>234</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -3972,7 +3966,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8537</v>
+        <v>8558</v>
       </c>
       <c r="B139" t="s">
         <v>235</v>
@@ -3989,7 +3983,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8558</v>
+        <v>9204</v>
       </c>
       <c r="B140" t="s">
         <v>237</v>
@@ -4006,7 +4000,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9204</v>
+        <v>9585</v>
       </c>
       <c r="B141" t="s">
         <v>239</v>
@@ -4023,7 +4017,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9585</v>
+        <v>9615</v>
       </c>
       <c r="B142" t="s">
         <v>241</v>
@@ -4040,7 +4034,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9615</v>
+        <v>9996</v>
       </c>
       <c r="B143" t="s">
         <v>243</v>
@@ -4057,7 +4051,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9996</v>
+        <v>10874</v>
       </c>
       <c r="B144" t="s">
         <v>245</v>
@@ -4074,7 +4068,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10874</v>
+        <v>11095</v>
       </c>
       <c r="B145" t="s">
         <v>247</v>
@@ -4083,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -4091,16 +4085,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>11095</v>
+        <v>11102</v>
       </c>
       <c r="B146" t="s">
+        <v>248</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" t="s">
         <v>249</v>
-      </c>
-      <c r="C146" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4108,7 +4102,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11102</v>
+        <v>11118</v>
       </c>
       <c r="B147" t="s">
         <v>250</v>
@@ -4125,7 +4119,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11118</v>
+        <v>11522</v>
       </c>
       <c r="B148" t="s">
         <v>252</v>
@@ -4134,7 +4128,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -4142,16 +4136,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>11522</v>
+        <v>11782</v>
       </c>
       <c r="B149" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -4159,10 +4153,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>11782</v>
+        <v>12068</v>
       </c>
       <c r="B150" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
@@ -4176,10 +4170,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>12068</v>
+        <v>12112</v>
       </c>
       <c r="B151" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -4193,16 +4187,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>12112</v>
+        <v>12525</v>
       </c>
       <c r="B152" t="s">
+        <v>256</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
         <v>257</v>
-      </c>
-      <c r="C152" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" t="s">
-        <v>13</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4210,7 +4204,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>12525</v>
+        <v>12789</v>
       </c>
       <c r="B153" t="s">
         <v>258</v>
@@ -4227,7 +4221,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>12789</v>
+        <v>13040</v>
       </c>
       <c r="B154" t="s">
         <v>260</v>
@@ -4244,7 +4238,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13040</v>
+        <v>13274</v>
       </c>
       <c r="B155" t="s">
         <v>262</v>
@@ -4261,7 +4255,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>13274</v>
+        <v>13459</v>
       </c>
       <c r="B156" t="s">
         <v>264</v>
@@ -4270,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -4278,10 +4272,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>13459</v>
+        <v>13620</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
@@ -4295,10 +4289,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>13620</v>
+        <v>13668</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
@@ -4312,16 +4306,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>13668</v>
+        <v>13694</v>
       </c>
       <c r="B159" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s">
         <v>268</v>
-      </c>
-      <c r="C159" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" t="s">
-        <v>13</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
@@ -4329,7 +4323,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>13694</v>
+        <v>13813</v>
       </c>
       <c r="B160" t="s">
         <v>269</v>
@@ -4346,7 +4340,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>13813</v>
+        <v>14097</v>
       </c>
       <c r="B161" t="s">
         <v>271</v>
@@ -4355,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -4363,16 +4357,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>14097</v>
+        <v>14638</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C162" t="s">
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -4380,16 +4374,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>14638</v>
+        <v>14648</v>
       </c>
       <c r="B163" t="s">
+        <v>273</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
         <v>274</v>
-      </c>
-      <c r="C163" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" t="s">
-        <v>218</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -4397,7 +4391,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>14648</v>
+        <v>14790</v>
       </c>
       <c r="B164" t="s">
         <v>275</v>
@@ -4406,7 +4400,7 @@
         <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4414,10 +4408,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>14790</v>
+        <v>14805</v>
       </c>
       <c r="B165" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
@@ -4431,10 +4425,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>14805</v>
+        <v>14817</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
@@ -4448,16 +4442,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>14817</v>
+        <v>15326</v>
       </c>
       <c r="B167" t="s">
+        <v>278</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
         <v>279</v>
-      </c>
-      <c r="C167" t="s">
-        <v>12</v>
-      </c>
-      <c r="D167" t="s">
-        <v>13</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -4465,7 +4459,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>15326</v>
+        <v>15327</v>
       </c>
       <c r="B168" t="s">
         <v>280</v>
@@ -4482,7 +4476,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>15327</v>
+        <v>15766</v>
       </c>
       <c r="B169" t="s">
         <v>282</v>
@@ -4499,7 +4493,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>15766</v>
+        <v>16324</v>
       </c>
       <c r="B170" t="s">
         <v>284</v>
@@ -4516,7 +4510,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16324</v>
+        <v>16396</v>
       </c>
       <c r="B171" t="s">
         <v>286</v>
@@ -4533,7 +4527,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16396</v>
+        <v>16669</v>
       </c>
       <c r="B172" t="s">
         <v>288</v>
@@ -4542,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4550,16 +4544,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16669</v>
+        <v>16887</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -4567,16 +4561,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16887</v>
+        <v>17104</v>
       </c>
       <c r="B174" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
         <v>291</v>
-      </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" t="s">
-        <v>13</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -4584,7 +4578,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>17104</v>
+        <v>17436</v>
       </c>
       <c r="B175" t="s">
         <v>292</v>
@@ -4593,7 +4587,7 @@
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -4601,16 +4595,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>17436</v>
+        <v>17964</v>
       </c>
       <c r="B176" t="s">
+        <v>293</v>
+      </c>
+      <c r="C176" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" t="s">
         <v>294</v>
-      </c>
-      <c r="C176" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" t="s">
-        <v>13</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -4618,7 +4612,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17964</v>
+        <v>18028</v>
       </c>
       <c r="B177" t="s">
         <v>295</v>
@@ -4635,7 +4629,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>18028</v>
+        <v>18106</v>
       </c>
       <c r="B178" t="s">
         <v>297</v>
@@ -4652,7 +4646,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>18106</v>
+        <v>18252</v>
       </c>
       <c r="B179" t="s">
         <v>299</v>
@@ -4661,7 +4655,7 @@
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>300</v>
+        <v>13</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4669,16 +4663,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>18252</v>
+        <v>18289</v>
       </c>
       <c r="B180" t="s">
+        <v>300</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" t="s">
         <v>301</v>
-      </c>
-      <c r="C180" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
-        <v>13</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -4686,7 +4680,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>18289</v>
+        <v>18404</v>
       </c>
       <c r="B181" t="s">
         <v>302</v>
@@ -4703,7 +4697,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>18404</v>
+        <v>18486</v>
       </c>
       <c r="B182" t="s">
         <v>304</v>
@@ -4712,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4720,16 +4714,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>18486</v>
+        <v>18538</v>
       </c>
       <c r="B183" t="s">
+        <v>305</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
         <v>306</v>
-      </c>
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" t="s">
-        <v>13</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -4737,7 +4731,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>18538</v>
+        <v>18583</v>
       </c>
       <c r="B184" t="s">
         <v>307</v>
@@ -4754,7 +4748,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>18583</v>
+        <v>18898</v>
       </c>
       <c r="B185" t="s">
         <v>309</v>
@@ -4771,7 +4765,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>18898</v>
+        <v>18958</v>
       </c>
       <c r="B186" t="s">
         <v>311</v>
@@ -4788,7 +4782,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18958</v>
+        <v>18968</v>
       </c>
       <c r="B187" t="s">
         <v>313</v>
@@ -4797,7 +4791,7 @@
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -4805,16 +4799,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18968</v>
+        <v>19180</v>
       </c>
       <c r="B188" t="s">
+        <v>314</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
         <v>315</v>
-      </c>
-      <c r="C188" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" t="s">
-        <v>218</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -4822,7 +4816,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>19180</v>
+        <v>19839</v>
       </c>
       <c r="B189" t="s">
         <v>316</v>
@@ -4831,7 +4825,7 @@
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -4839,10 +4833,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>19839</v>
+        <v>20580</v>
       </c>
       <c r="B190" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -4856,10 +4850,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>20580</v>
+        <v>20703</v>
       </c>
       <c r="B191" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
@@ -4873,10 +4867,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>20703</v>
+        <v>21216</v>
       </c>
       <c r="B192" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
@@ -4890,16 +4884,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>21216</v>
+        <v>21526</v>
       </c>
       <c r="B193" t="s">
+        <v>320</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
         <v>321</v>
-      </c>
-      <c r="C193" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" t="s">
-        <v>13</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -4907,13 +4901,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>21526</v>
+        <v>21575</v>
       </c>
       <c r="B194" t="s">
         <v>322</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D194" t="s">
         <v>323</v>
@@ -4924,7 +4918,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>21575</v>
+        <v>21625</v>
       </c>
       <c r="B195" t="s">
         <v>324</v>
@@ -4933,7 +4927,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -4941,16 +4935,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>21625</v>
+        <v>21792</v>
       </c>
       <c r="B196" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>13</v>
+        <v>326</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -4958,7 +4952,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>21792</v>
+        <v>21793</v>
       </c>
       <c r="B197" t="s">
         <v>327</v>
@@ -4967,7 +4961,7 @@
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -4975,16 +4969,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>21793</v>
+        <v>21846</v>
       </c>
       <c r="B198" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
@@ -4992,7 +4986,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>21846</v>
+        <v>21974</v>
       </c>
       <c r="B199" t="s">
         <v>330</v>
@@ -5009,7 +5003,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>21974</v>
+        <v>22078</v>
       </c>
       <c r="B200" t="s">
         <v>332</v>
@@ -5018,7 +5012,7 @@
         <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5026,10 +5020,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>22078</v>
+        <v>22162</v>
       </c>
       <c r="B201" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -5043,10 +5037,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>22162</v>
+        <v>22213</v>
       </c>
       <c r="B202" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -5060,10 +5054,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>22213</v>
+        <v>22255</v>
       </c>
       <c r="B203" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -5077,16 +5071,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>22255</v>
+        <v>22323</v>
       </c>
       <c r="B204" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -5094,7 +5088,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>22323</v>
+        <v>23611</v>
       </c>
       <c r="B205" t="s">
         <v>338</v>
@@ -5103,7 +5097,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -5111,16 +5105,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>23611</v>
+        <v>23987</v>
       </c>
       <c r="B206" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -5128,7 +5122,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>23987</v>
+        <v>24026</v>
       </c>
       <c r="B207" t="s">
         <v>341</v>
@@ -5145,7 +5139,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>24026</v>
+        <v>24095</v>
       </c>
       <c r="B208" t="s">
         <v>343</v>
@@ -5162,7 +5156,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>24095</v>
+        <v>24151</v>
       </c>
       <c r="B209" t="s">
         <v>345</v>
@@ -5171,7 +5165,7 @@
         <v>6</v>
       </c>
       <c r="D209" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -5179,16 +5173,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>24151</v>
+        <v>24321</v>
       </c>
       <c r="B210" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -5196,16 +5190,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>24321</v>
+        <v>24364</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -5213,16 +5207,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>24364</v>
+        <v>24368</v>
       </c>
       <c r="B212" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5230,7 +5224,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>24368</v>
+        <v>24904</v>
       </c>
       <c r="B213" t="s">
         <v>350</v>
@@ -5239,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -5247,10 +5241,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>24904</v>
+        <v>25214</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -5264,16 +5258,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>25214</v>
+        <v>25218</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>353</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -5281,7 +5275,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>25218</v>
+        <v>25275</v>
       </c>
       <c r="B216" t="s">
         <v>354</v>
@@ -5298,7 +5292,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>25275</v>
+        <v>25300</v>
       </c>
       <c r="B217" t="s">
         <v>356</v>
@@ -5307,7 +5301,7 @@
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -5315,16 +5309,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25300</v>
+        <v>25460</v>
       </c>
       <c r="B218" t="s">
+        <v>357</v>
+      </c>
+      <c r="C218" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" t="s">
         <v>358</v>
-      </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" t="s">
-        <v>13</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5332,7 +5326,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>25460</v>
+        <v>25743</v>
       </c>
       <c r="B219" t="s">
         <v>359</v>
@@ -5341,7 +5335,7 @@
         <v>22</v>
       </c>
       <c r="D219" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -5349,16 +5343,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>25743</v>
+        <v>25897</v>
       </c>
       <c r="B220" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C220" t="s">
         <v>22</v>
       </c>
       <c r="D220" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5366,7 +5360,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>25897</v>
+        <v>25913</v>
       </c>
       <c r="B221" t="s">
         <v>362</v>
@@ -5383,7 +5377,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>25913</v>
+        <v>25930</v>
       </c>
       <c r="B222" t="s">
         <v>364</v>
@@ -5400,7 +5394,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>25930</v>
+        <v>26158</v>
       </c>
       <c r="B223" t="s">
         <v>366</v>
@@ -5417,16 +5411,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>26158</v>
+        <v>26233</v>
       </c>
       <c r="B224" t="s">
         <v>368</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -5434,16 +5428,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>26233</v>
+        <v>26333</v>
       </c>
       <c r="B225" t="s">
+        <v>369</v>
+      </c>
+      <c r="C225" t="s">
         <v>370</v>
       </c>
-      <c r="C225" t="s">
-        <v>9</v>
-      </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>371</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -5451,13 +5445,13 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>26333</v>
+        <v>26447</v>
       </c>
       <c r="B226" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C226" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D226" t="s">
         <v>373</v>
@@ -5468,16 +5462,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>26447</v>
+        <v>26460</v>
       </c>
       <c r="B227" t="s">
         <v>374</v>
       </c>
       <c r="C227" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D227" t="s">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5485,16 +5479,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>26460</v>
+        <v>26461</v>
       </c>
       <c r="B228" t="s">
+        <v>375</v>
+      </c>
+      <c r="C228" t="s">
+        <v>370</v>
+      </c>
+      <c r="D228" t="s">
         <v>376</v>
-      </c>
-      <c r="C228" t="s">
-        <v>372</v>
-      </c>
-      <c r="D228" t="s">
-        <v>13</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -5502,16 +5496,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>26461</v>
+        <v>26660</v>
       </c>
       <c r="B229" t="s">
         <v>377</v>
       </c>
       <c r="C229" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D229" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -5519,16 +5513,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>26660</v>
+        <v>26690</v>
       </c>
       <c r="B230" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C230" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D230" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5536,16 +5530,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>26690</v>
+        <v>26842</v>
       </c>
       <c r="B231" t="s">
+        <v>381</v>
+      </c>
+      <c r="C231" t="s">
+        <v>378</v>
+      </c>
+      <c r="D231" t="s">
         <v>382</v>
-      </c>
-      <c r="C231" t="s">
-        <v>380</v>
-      </c>
-      <c r="D231" t="s">
-        <v>13</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -5553,13 +5547,13 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>26842</v>
+        <v>26923</v>
       </c>
       <c r="B232" t="s">
         <v>383</v>
       </c>
       <c r="C232" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D232" t="s">
         <v>384</v>
@@ -5570,16 +5564,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>26923</v>
+        <v>27230</v>
       </c>
       <c r="B233" t="s">
         <v>385</v>
       </c>
       <c r="C233" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D233" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5587,16 +5581,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>27230</v>
+        <v>27725</v>
       </c>
       <c r="B234" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C234" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D234" t="s">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="E234" t="n">
         <v>1</v>
@@ -5604,16 +5598,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>27725</v>
+        <v>27739</v>
       </c>
       <c r="B235" t="s">
         <v>390</v>
       </c>
       <c r="C235" t="s">
+        <v>389</v>
+      </c>
+      <c r="D235" t="s">
         <v>391</v>
-      </c>
-      <c r="D235" t="s">
-        <v>218</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -5621,16 +5615,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>27739</v>
+        <v>27792</v>
       </c>
       <c r="B236" t="s">
         <v>392</v>
       </c>
       <c r="C236" t="s">
-        <v>391</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="E236" t="n">
         <v>1</v>
@@ -5638,16 +5632,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>27792</v>
+        <v>27798</v>
       </c>
       <c r="B237" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>287</v>
+        <v>10</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -5655,16 +5649,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>27798</v>
+        <v>27920</v>
       </c>
       <c r="B238" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E238" t="n">
         <v>1</v>
@@ -5672,13 +5666,13 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>27920</v>
+        <v>27923</v>
       </c>
       <c r="B239" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
         <v>13</v>
@@ -5689,16 +5683,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>27923</v>
+        <v>28005</v>
       </c>
       <c r="B240" t="s">
+        <v>396</v>
+      </c>
+      <c r="C240" t="s">
+        <v>18</v>
+      </c>
+      <c r="D240" t="s">
         <v>397</v>
-      </c>
-      <c r="C240" t="s">
-        <v>15</v>
-      </c>
-      <c r="D240" t="s">
-        <v>13</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -5706,16 +5700,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>28005</v>
+        <v>28262</v>
       </c>
       <c r="B241" t="s">
         <v>398</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>399</v>
+        <v>10</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -5723,16 +5717,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>28262</v>
+        <v>28300</v>
       </c>
       <c r="B242" t="s">
+        <v>399</v>
+      </c>
+      <c r="C242" t="s">
+        <v>36</v>
+      </c>
+      <c r="D242" t="s">
         <v>400</v>
-      </c>
-      <c r="C242" t="s">
-        <v>9</v>
-      </c>
-      <c r="D242" t="s">
-        <v>10</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -5740,7 +5734,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>28300</v>
+        <v>28376</v>
       </c>
       <c r="B243" t="s">
         <v>401</v>
@@ -5757,7 +5751,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>28376</v>
+        <v>28417</v>
       </c>
       <c r="B244" t="s">
         <v>403</v>
@@ -5766,7 +5760,7 @@
         <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>404</v>
+        <v>13</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -5774,16 +5768,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>28417</v>
+        <v>28677</v>
       </c>
       <c r="B245" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C245" t="s">
         <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
@@ -5791,7 +5785,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>28677</v>
+        <v>28817</v>
       </c>
       <c r="B246" t="s">
         <v>406</v>
@@ -5808,7 +5802,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>28817</v>
+        <v>28829</v>
       </c>
       <c r="B247" t="s">
         <v>408</v>
@@ -5825,7 +5819,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>28829</v>
+        <v>28849</v>
       </c>
       <c r="B248" t="s">
         <v>410</v>
@@ -5834,7 +5828,7 @@
         <v>36</v>
       </c>
       <c r="D248" t="s">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -5842,16 +5836,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>28849</v>
+        <v>28866</v>
       </c>
       <c r="B249" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C249" t="s">
         <v>36</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>412</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -5859,7 +5853,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>28866</v>
+        <v>28887</v>
       </c>
       <c r="B250" t="s">
         <v>413</v>
@@ -5876,7 +5870,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>28887</v>
+        <v>28893</v>
       </c>
       <c r="B251" t="s">
         <v>415</v>
@@ -5893,7 +5887,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>28893</v>
+        <v>28905</v>
       </c>
       <c r="B252" t="s">
         <v>417</v>
@@ -5910,7 +5904,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>28905</v>
+        <v>29160</v>
       </c>
       <c r="B253" t="s">
         <v>419</v>
@@ -5927,7 +5921,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>29160</v>
+        <v>29200</v>
       </c>
       <c r="B254" t="s">
         <v>421</v>
@@ -5936,7 +5930,7 @@
         <v>36</v>
       </c>
       <c r="D254" t="s">
-        <v>422</v>
+        <v>13</v>
       </c>
       <c r="E254" t="n">
         <v>1</v>
@@ -5944,16 +5938,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>29200</v>
+        <v>29439</v>
       </c>
       <c r="B255" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C255" t="s">
         <v>36</v>
       </c>
       <c r="D255" t="s">
-        <v>13</v>
+        <v>423</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -5961,35 +5955,18 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>29439</v>
+        <v>29836</v>
       </c>
       <c r="B256" t="s">
         <v>424</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>425</v>
+        <v>10</v>
       </c>
       <c r="E256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>29836</v>
-      </c>
-      <c r="B257" t="s">
-        <v>426</v>
-      </c>
-      <c r="C257" t="s">
-        <v>9</v>
-      </c>
-      <c r="D257" t="s">
-        <v>10</v>
-      </c>
-      <c r="E257" t="n">
         <v>1</v>
       </c>
     </row>

--- a/summaries/trials/UPHS/variantSummary.xlsx
+++ b/summaries/trials/UPHS/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -56,24 +56,24 @@
     <t xml:space="preserve">silent</t>
   </si>
   <si>
+    <t xml:space="preserve">C14408T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P314L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28144T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S84L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3037T</t>
   </si>
   <si>
-    <t xml:space="preserve">C14408T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P314L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28144T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S84L</t>
-  </si>
-  <si>
     <t xml:space="preserve">T8782C</t>
   </si>
   <si>
@@ -95,12 +95,51 @@
     <t xml:space="preserve">C16260T</t>
   </si>
   <si>
+    <t xml:space="preserve">A20268G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28854T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S194L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1578C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V438A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6618A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2118D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7833C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2523T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10741T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G18255T</t>
   </si>
   <si>
     <t xml:space="preserve">M1596I</t>
   </si>
   <si>
+    <t xml:space="preserve">C23604A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P681H</t>
+  </si>
+  <si>
     <t xml:space="preserve">C18877T</t>
   </si>
   <si>
@@ -110,72 +149,36 @@
     <t xml:space="preserve">G142S</t>
   </si>
   <si>
+    <t xml:space="preserve">T24076C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29266A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T29710C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11916T</t>
   </si>
   <si>
     <t xml:space="preserve">S3884L</t>
   </si>
   <si>
-    <t xml:space="preserve">A20268G</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28821A</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
     <t xml:space="preserve">S183Y</t>
   </si>
   <si>
-    <t xml:space="preserve">C28854T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S194L</t>
-  </si>
-  <si>
     <t xml:space="preserve">G29540A</t>
   </si>
   <si>
-    <t xml:space="preserve">T1578C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V438A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G6618A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2118D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7833C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2523T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10741T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18998T</t>
   </si>
   <si>
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
-    <t xml:space="preserve">C23604A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P681H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T24076C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29710C</t>
-  </si>
-  <si>
     <t xml:space="preserve">T1918C</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
     <t xml:space="preserve">G204R</t>
   </si>
   <si>
-    <t xml:space="preserve">G29266A</t>
-  </si>
-  <si>
     <t xml:space="preserve">T7386C</t>
   </si>
   <si>
@@ -335,6 +335,9 @@
     <t xml:space="preserve">E226G</t>
   </si>
   <si>
+    <t xml:space="preserve">C27923T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C27964T</t>
   </si>
   <si>
@@ -344,6 +347,12 @@
     <t xml:space="preserve">C28609T</t>
   </si>
   <si>
+    <t xml:space="preserve">C29445T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T391I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C29614T</t>
   </si>
   <si>
@@ -353,6 +362,12 @@
     <t xml:space="preserve">C157T</t>
   </si>
   <si>
+    <t xml:space="preserve">T692C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F143L</t>
+  </si>
+  <si>
     <t xml:space="preserve">A2219G</t>
   </si>
   <si>
@@ -374,18 +389,39 @@
     <t xml:space="preserve">C2416T</t>
   </si>
   <si>
+    <t xml:space="preserve">A5011C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1582H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5497T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A5570G</t>
   </si>
   <si>
     <t xml:space="preserve">M1769V</t>
   </si>
   <si>
+    <t xml:space="preserve">T7168C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G7393T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T10665C</t>
   </si>
   <si>
     <t xml:space="preserve">V3467A</t>
   </si>
   <si>
+    <t xml:space="preserve">C12525T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4087I</t>
+  </si>
+  <si>
     <t xml:space="preserve">G13975T</t>
   </si>
   <si>
@@ -398,6 +434,12 @@
     <t xml:space="preserve">A1326T</t>
   </si>
   <si>
+    <t xml:space="preserve">G18028T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1521S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C18348T</t>
   </si>
   <si>
@@ -413,6 +455,12 @@
     <t xml:space="preserve">P1682L</t>
   </si>
   <si>
+    <t xml:space="preserve">G19180T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C19524T</t>
   </si>
   <si>
@@ -428,39 +476,63 @@
     <t xml:space="preserve">G252D</t>
   </si>
   <si>
+    <t xml:space="preserve">G24095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A845S</t>
+  </si>
+  <si>
     <t xml:space="preserve">G25907T</t>
   </si>
   <si>
     <t xml:space="preserve">G172V</t>
   </si>
   <si>
+    <t xml:space="preserve">C27920T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28068T</t>
   </si>
   <si>
     <t xml:space="preserve">E59*</t>
   </si>
   <si>
+    <t xml:space="preserve">G28300T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9H</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28472T</t>
   </si>
   <si>
     <t xml:space="preserve">P67S</t>
   </si>
   <si>
+    <t xml:space="preserve">C28677T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T135I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28869T</t>
   </si>
   <si>
     <t xml:space="preserve">P199L</t>
   </si>
   <si>
-    <t xml:space="preserve">C29445T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T391I</t>
+    <t xml:space="preserve">C28893T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P207L</t>
   </si>
   <si>
     <t xml:space="preserve">G29747T</t>
   </si>
   <si>
+    <t xml:space="preserve">C583T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G625T</t>
   </si>
   <si>
@@ -473,21 +545,24 @@
     <t xml:space="preserve">A138V</t>
   </si>
   <si>
-    <t xml:space="preserve">T692C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F143L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C920T</t>
   </si>
   <si>
+    <t xml:space="preserve">T931C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1403T</t>
   </si>
   <si>
     <t xml:space="preserve">P380S</t>
   </si>
   <si>
+    <t xml:space="preserve">G1563A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C433Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1594T</t>
   </si>
   <si>
@@ -551,6 +626,12 @@
     <t xml:space="preserve">L1016P</t>
   </si>
   <si>
+    <t xml:space="preserve">C3411T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1049V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3702T</t>
   </si>
   <si>
@@ -581,10 +662,7 @@
     <t xml:space="preserve">T4579A</t>
   </si>
   <si>
-    <t xml:space="preserve">A5011C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1582H</t>
+    <t xml:space="preserve">C4927T</t>
   </si>
   <si>
     <t xml:space="preserve">A5094G</t>
@@ -593,9 +671,6 @@
     <t xml:space="preserve">H1610R</t>
   </si>
   <si>
-    <t xml:space="preserve">C5497T</t>
-  </si>
-  <si>
     <t xml:space="preserve">A5500G</t>
   </si>
   <si>
@@ -605,6 +680,12 @@
     <t xml:space="preserve">C1755F</t>
   </si>
   <si>
+    <t xml:space="preserve">G5554T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1763N</t>
+  </si>
+  <si>
     <t xml:space="preserve">C5730T</t>
   </si>
   <si>
@@ -671,18 +752,12 @@
     <t xml:space="preserve">del 1</t>
   </si>
   <si>
-    <t xml:space="preserve">T7168C</t>
-  </si>
-  <si>
     <t xml:space="preserve">G7253T</t>
   </si>
   <si>
     <t xml:space="preserve">A2330S</t>
   </si>
   <si>
-    <t xml:space="preserve">G7393T</t>
-  </si>
-  <si>
     <t xml:space="preserve">G7798T</t>
   </si>
   <si>
@@ -692,6 +767,12 @@
     <t xml:space="preserve">C7834T</t>
   </si>
   <si>
+    <t xml:space="preserve">C7860T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2532I</t>
+  </si>
+  <si>
     <t xml:space="preserve">G7975A</t>
   </si>
   <si>
@@ -782,10 +863,10 @@
     <t xml:space="preserve">T12112C</t>
   </si>
   <si>
-    <t xml:space="preserve">C12525T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4087I</t>
+    <t xml:space="preserve">C12153T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3963V</t>
   </si>
   <si>
     <t xml:space="preserve">C12789T</t>
@@ -794,6 +875,9 @@
     <t xml:space="preserve">T4175I</t>
   </si>
   <si>
+    <t xml:space="preserve">C12919T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G13040T</t>
   </si>
   <si>
@@ -866,6 +950,9 @@
     <t xml:space="preserve">V767L</t>
   </si>
   <si>
+    <t xml:space="preserve">C15952T</t>
+  </si>
+  <si>
     <t xml:space="preserve">CTGT16324delTG</t>
   </si>
   <si>
@@ -899,12 +986,6 @@
     <t xml:space="preserve">M1499I</t>
   </si>
   <si>
-    <t xml:space="preserve">G18028T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1521S</t>
-  </si>
-  <si>
     <t xml:space="preserve">G18106C</t>
   </si>
   <si>
@@ -956,10 +1037,10 @@
     <t xml:space="preserve">AG18968delG</t>
   </si>
   <si>
-    <t xml:space="preserve">G19180T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1905L</t>
+    <t xml:space="preserve">G19021A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1852I</t>
   </si>
   <si>
     <t xml:space="preserve">T19839C</t>
@@ -989,6 +1070,9 @@
     <t xml:space="preserve">A21625G</t>
   </si>
   <si>
+    <t xml:space="preserve">C21727T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A21792T</t>
   </si>
   <si>
@@ -1043,10 +1127,10 @@
     <t xml:space="preserve">del 3</t>
   </si>
   <si>
-    <t xml:space="preserve">G24095T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A845S</t>
+    <t xml:space="preserve">C24138T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T859I</t>
   </si>
   <si>
     <t xml:space="preserve">CTTT24151delTT</t>
@@ -1091,6 +1175,9 @@
     <t xml:space="preserve">A23V</t>
   </si>
   <si>
+    <t xml:space="preserve">T25662C</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTATA25743delTA</t>
   </si>
   <si>
@@ -1196,12 +1283,6 @@
     <t xml:space="preserve">G27798T</t>
   </si>
   <si>
-    <t xml:space="preserve">C27920T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27923T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28005T</t>
   </si>
   <si>
@@ -1211,25 +1292,22 @@
     <t xml:space="preserve">G28262C</t>
   </si>
   <si>
-    <t xml:space="preserve">G28300T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9H</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28376T</t>
   </si>
   <si>
     <t xml:space="preserve">A35S</t>
   </si>
   <si>
+    <t xml:space="preserve">A28386T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K38I</t>
+  </si>
+  <si>
     <t xml:space="preserve">T28417C</t>
   </si>
   <si>
-    <t xml:space="preserve">C28677T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T135I</t>
+    <t xml:space="preserve">T28444A</t>
   </si>
   <si>
     <t xml:space="preserve">G28817A</t>
@@ -1259,12 +1337,6 @@
     <t xml:space="preserve">T205I</t>
   </si>
   <si>
-    <t xml:space="preserve">C28893T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P207L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28905T</t>
   </si>
   <si>
@@ -1284,6 +1356,12 @@
   </si>
   <si>
     <t xml:space="preserve">Q389L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29648T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D31Y</t>
   </si>
   <si>
     <t xml:space="preserve">C29836T</t>
@@ -1649,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
@@ -1666,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -1683,12 +1761,12 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3037</v>
+        <v>14408</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1697,44 +1775,44 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14408</v>
+        <v>28144</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>28144</v>
+        <v>3037</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1751,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -1768,7 +1846,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1785,7 +1863,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1807,7 +1885,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18255</v>
+        <v>20268</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1816,256 +1894,256 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18877</v>
+        <v>28854</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21986</v>
+        <v>1578</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11916</v>
+        <v>6618</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20268</v>
+        <v>7833</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28821</v>
+        <v>10741</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>28854</v>
+        <v>18255</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>29540</v>
+        <v>23604</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1578</v>
+        <v>18877</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6618</v>
+        <v>21986</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7833</v>
+        <v>24076</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10741</v>
+        <v>29266</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18998</v>
+        <v>29710</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23604</v>
+        <v>11916</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24076</v>
+        <v>28821</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29710</v>
+        <v>29540</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -2074,35 +2152,35 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1918</v>
+        <v>18998</v>
       </c>
       <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>23230</v>
+        <v>1918</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -2113,16 +2191,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28881</v>
+        <v>23230</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
@@ -2130,16 +2208,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28882</v>
+        <v>28881</v>
       </c>
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s">
-        <v>57</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
@@ -2147,16 +2225,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>28883</v>
+        <v>28882</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
@@ -2164,16 +2242,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>29266</v>
+        <v>28883</v>
       </c>
       <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
         <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
@@ -2255,7 +2333,7 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
@@ -2391,7 +2469,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
         <v>84</v>
@@ -2408,7 +2486,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
         <v>86</v>
@@ -2606,16 +2684,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>27964</v>
+        <v>27923</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -2623,16 +2701,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>28609</v>
+        <v>27964</v>
       </c>
       <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
@@ -2640,13 +2718,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29614</v>
+        <v>28609</v>
       </c>
       <c r="B61" t="s">
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -2657,50 +2735,50 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>157</v>
+        <v>29445</v>
       </c>
       <c r="B62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" t="s">
         <v>112</v>
       </c>
-      <c r="C62" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2219</v>
+        <v>29614</v>
       </c>
       <c r="B63" t="s">
         <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2262</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
         <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -2708,16 +2786,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2342</v>
+        <v>692</v>
       </c>
       <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
         <v>117</v>
-      </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>118</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -2725,16 +2803,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2416</v>
+        <v>2219</v>
       </c>
       <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
         <v>119</v>
-      </c>
-      <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -2742,7 +2820,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5570</v>
+        <v>2262</v>
       </c>
       <c r="B67" t="s">
         <v>120</v>
@@ -2759,7 +2837,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10665</v>
+        <v>2342</v>
       </c>
       <c r="B68" t="s">
         <v>122</v>
@@ -2776,7 +2854,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13975</v>
+        <v>2416</v>
       </c>
       <c r="B69" t="s">
         <v>124</v>
@@ -2785,7 +2863,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -2793,16 +2871,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>17443</v>
+        <v>5011</v>
       </c>
       <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
         <v>126</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
-        <v>127</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -2810,10 +2888,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>18348</v>
+        <v>5497</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -2827,16 +2905,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>18424</v>
+        <v>5570</v>
       </c>
       <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
         <v>129</v>
-      </c>
-      <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" t="s">
-        <v>130</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -2844,16 +2922,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>18512</v>
+        <v>7168</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -2861,10 +2939,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>19524</v>
+        <v>7393</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -2878,16 +2956,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>21304</v>
+        <v>10665</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -2895,16 +2973,16 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>22317</v>
+        <v>12525</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -2912,16 +2990,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>25907</v>
+        <v>13975</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -2929,16 +3007,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>28068</v>
+        <v>17443</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -2946,16 +3024,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>28472</v>
+        <v>18028</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -2963,16 +3041,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>28869</v>
+        <v>18348</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -2980,16 +3058,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>29445</v>
+        <v>18424</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -2997,16 +3075,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>29747</v>
+        <v>18512</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -3014,248 +3092,248 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>625</v>
+        <v>19180</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>678</v>
+        <v>19524</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>692</v>
+        <v>21304</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>920</v>
+        <v>22317</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1403</v>
+        <v>24095</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1594</v>
+        <v>25907</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1884</v>
+        <v>27920</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1912</v>
+        <v>28068</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1927</v>
+        <v>28300</v>
       </c>
       <c r="B91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
         <v>162</v>
       </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" t="s">
-        <v>13</v>
-      </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2040</v>
+        <v>28472</v>
       </c>
       <c r="B92" t="s">
         <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
         <v>164</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2113</v>
+        <v>28677</v>
       </c>
       <c r="B93" t="s">
         <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2258</v>
+        <v>28869</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2334</v>
+        <v>28893</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2644</v>
+        <v>29747</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2785</v>
+        <v>583</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -3269,16 +3347,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2788</v>
+        <v>625</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -3286,16 +3364,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2880</v>
+        <v>678</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -3303,16 +3381,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3176</v>
+        <v>920</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -3320,16 +3398,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3312</v>
+        <v>931</v>
       </c>
       <c r="B101" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -3337,7 +3415,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3702</v>
+        <v>1403</v>
       </c>
       <c r="B102" t="s">
         <v>179</v>
@@ -3354,7 +3432,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3714</v>
+        <v>1563</v>
       </c>
       <c r="B103" t="s">
         <v>181</v>
@@ -3371,7 +3449,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>3991</v>
+        <v>1594</v>
       </c>
       <c r="B104" t="s">
         <v>183</v>
@@ -3388,7 +3466,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4084</v>
+        <v>1884</v>
       </c>
       <c r="B105" t="s">
         <v>184</v>
@@ -3397,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -3405,16 +3483,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4201</v>
+        <v>1912</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -3422,7 +3500,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4540</v>
+        <v>1927</v>
       </c>
       <c r="B107" t="s">
         <v>187</v>
@@ -3439,7 +3517,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4579</v>
+        <v>2040</v>
       </c>
       <c r="B108" t="s">
         <v>188</v>
@@ -3448,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
@@ -3456,16 +3534,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5011</v>
+        <v>2113</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="E109" t="n">
         <v>1</v>
@@ -3473,7 +3551,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5094</v>
+        <v>2258</v>
       </c>
       <c r="B110" t="s">
         <v>191</v>
@@ -3490,7 +3568,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5497</v>
+        <v>2334</v>
       </c>
       <c r="B111" t="s">
         <v>193</v>
@@ -3499,7 +3577,7 @@
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
@@ -3507,10 +3585,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5500</v>
+        <v>2644</v>
       </c>
       <c r="B112" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -3524,16 +3602,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5529</v>
+        <v>2785</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -3541,7 +3619,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5730</v>
+        <v>2788</v>
       </c>
       <c r="B114" t="s">
         <v>197</v>
@@ -3550,7 +3628,7 @@
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
@@ -3558,16 +3636,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5742</v>
+        <v>2880</v>
       </c>
       <c r="B115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" t="s">
         <v>199</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" t="s">
-        <v>200</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
@@ -3575,16 +3653,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6040</v>
+        <v>3176</v>
       </c>
       <c r="B116" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" t="s">
         <v>201</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -3592,7 +3670,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6285</v>
+        <v>3312</v>
       </c>
       <c r="B117" t="s">
         <v>202</v>
@@ -3609,7 +3687,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6320</v>
+        <v>3411</v>
       </c>
       <c r="B118" t="s">
         <v>204</v>
@@ -3626,7 +3704,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6441</v>
+        <v>3702</v>
       </c>
       <c r="B119" t="s">
         <v>206</v>
@@ -3643,7 +3721,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6505</v>
+        <v>3714</v>
       </c>
       <c r="B120" t="s">
         <v>208</v>
@@ -3652,7 +3730,7 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -3660,16 +3738,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6536</v>
+        <v>3991</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -3677,7 +3755,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6543</v>
+        <v>4084</v>
       </c>
       <c r="B122" t="s">
         <v>211</v>
@@ -3686,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -3694,16 +3772,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6754</v>
+        <v>4201</v>
       </c>
       <c r="B123" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
         <v>213</v>
-      </c>
-      <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -3711,7 +3789,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6889</v>
+        <v>4540</v>
       </c>
       <c r="B124" t="s">
         <v>214</v>
@@ -3728,7 +3806,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6926</v>
+        <v>4579</v>
       </c>
       <c r="B125" t="s">
         <v>215</v>
@@ -3737,7 +3815,7 @@
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -3745,16 +3823,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>7012</v>
+        <v>4927</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -3762,16 +3840,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7168</v>
+        <v>5094</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -3779,16 +3857,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>7253</v>
+        <v>5500</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -3796,16 +3874,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>7393</v>
+        <v>5529</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -3813,16 +3891,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>7798</v>
+        <v>5554</v>
       </c>
       <c r="B130" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" t="s">
         <v>223</v>
-      </c>
-      <c r="C130" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" t="s">
-        <v>224</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -3830,16 +3908,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7834</v>
+        <v>5730</v>
       </c>
       <c r="B131" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
         <v>225</v>
-      </c>
-      <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -3847,7 +3925,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>7975</v>
+        <v>5742</v>
       </c>
       <c r="B132" t="s">
         <v>226</v>
@@ -3856,7 +3934,7 @@
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -3864,10 +3942,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8047</v>
+        <v>6040</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
@@ -3881,16 +3959,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8083</v>
+        <v>6285</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -3898,16 +3976,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8140</v>
+        <v>6320</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -3915,16 +3993,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8304</v>
+        <v>6441</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -3932,10 +4010,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8344</v>
+        <v>6505</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -3949,16 +4027,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8537</v>
+        <v>6536</v>
       </c>
       <c r="B138" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -3966,16 +4044,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8558</v>
+        <v>6543</v>
       </c>
       <c r="B139" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -3983,16 +4061,16 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9204</v>
+        <v>6754</v>
       </c>
       <c r="B140" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -4000,16 +4078,16 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9585</v>
+        <v>6889</v>
       </c>
       <c r="B141" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -4017,16 +4095,16 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9615</v>
+        <v>6926</v>
       </c>
       <c r="B142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -4034,16 +4112,16 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9996</v>
+        <v>7012</v>
       </c>
       <c r="B143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -4051,16 +4129,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10874</v>
+        <v>7253</v>
       </c>
       <c r="B144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -4068,16 +4146,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>11095</v>
+        <v>7798</v>
       </c>
       <c r="B145" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -4085,16 +4163,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>11102</v>
+        <v>7834</v>
       </c>
       <c r="B146" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4102,16 +4180,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>11118</v>
+        <v>7860</v>
       </c>
       <c r="B147" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
@@ -4119,16 +4197,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11522</v>
+        <v>7975</v>
       </c>
       <c r="B148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -4136,10 +4214,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>11782</v>
+        <v>8047</v>
       </c>
       <c r="B149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -4153,16 +4231,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>12068</v>
+        <v>8083</v>
       </c>
       <c r="B150" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -4170,10 +4248,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>12112</v>
+        <v>8140</v>
       </c>
       <c r="B151" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -4187,16 +4265,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>12525</v>
+        <v>8304</v>
       </c>
       <c r="B152" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4204,16 +4282,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>12789</v>
+        <v>8344</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -4221,7 +4299,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>13040</v>
+        <v>8537</v>
       </c>
       <c r="B154" t="s">
         <v>260</v>
@@ -4238,7 +4316,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13274</v>
+        <v>8558</v>
       </c>
       <c r="B155" t="s">
         <v>262</v>
@@ -4255,7 +4333,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>13459</v>
+        <v>9204</v>
       </c>
       <c r="B156" t="s">
         <v>264</v>
@@ -4264,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -4272,16 +4350,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>13620</v>
+        <v>9585</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="E157" t="n">
         <v>1</v>
@@ -4289,16 +4367,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>13668</v>
+        <v>9615</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -4306,16 +4384,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>13694</v>
+        <v>9996</v>
       </c>
       <c r="B159" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
@@ -4323,16 +4401,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>13813</v>
+        <v>10874</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -4340,10 +4418,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>14097</v>
+        <v>11095</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
@@ -4357,16 +4435,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>14638</v>
+        <v>11102</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C162" t="s">
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -4374,16 +4452,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>14648</v>
+        <v>11118</v>
       </c>
       <c r="B163" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C163" t="s">
         <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -4391,16 +4469,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>14790</v>
+        <v>11522</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4408,10 +4486,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>14805</v>
+        <v>11782</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
@@ -4425,10 +4503,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>14817</v>
+        <v>12068</v>
       </c>
       <c r="B166" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
@@ -4442,16 +4520,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>15326</v>
+        <v>12112</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>279</v>
+        <v>13</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -4459,16 +4537,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>15327</v>
+        <v>12153</v>
       </c>
       <c r="B168" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -4476,16 +4554,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>15766</v>
+        <v>12789</v>
       </c>
       <c r="B169" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
@@ -4493,16 +4571,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16324</v>
+        <v>12919</v>
       </c>
       <c r="B170" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="E170" t="n">
         <v>1</v>
@@ -4510,16 +4588,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16396</v>
+        <v>13040</v>
       </c>
       <c r="B171" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -4527,16 +4605,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16669</v>
+        <v>13274</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4544,10 +4622,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16887</v>
+        <v>13459</v>
       </c>
       <c r="B173" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
@@ -4561,16 +4639,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>17104</v>
+        <v>13620</v>
       </c>
       <c r="B174" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -4578,10 +4656,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>17436</v>
+        <v>13668</v>
       </c>
       <c r="B175" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -4595,16 +4673,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>17964</v>
+        <v>13694</v>
       </c>
       <c r="B176" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -4612,16 +4690,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>18028</v>
+        <v>13813</v>
       </c>
       <c r="B177" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -4629,16 +4707,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>18106</v>
+        <v>14097</v>
       </c>
       <c r="B178" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C178" t="s">
         <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4646,16 +4724,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>18252</v>
+        <v>14638</v>
       </c>
       <c r="B179" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4663,16 +4741,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>18289</v>
+        <v>14648</v>
       </c>
       <c r="B180" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C180" t="s">
         <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -4680,16 +4758,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>18404</v>
+        <v>14790</v>
       </c>
       <c r="B181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -4697,7 +4775,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>18486</v>
+        <v>14805</v>
       </c>
       <c r="B182" t="s">
         <v>304</v>
@@ -4714,7 +4792,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>18538</v>
+        <v>14817</v>
       </c>
       <c r="B183" t="s">
         <v>305</v>
@@ -4723,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -4731,16 +4809,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>18583</v>
+        <v>15326</v>
       </c>
       <c r="B184" t="s">
+        <v>306</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
         <v>307</v>
-      </c>
-      <c r="C184" t="s">
-        <v>12</v>
-      </c>
-      <c r="D184" t="s">
-        <v>308</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -4748,16 +4826,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>18898</v>
+        <v>15327</v>
       </c>
       <c r="B185" t="s">
+        <v>308</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
         <v>309</v>
-      </c>
-      <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" t="s">
-        <v>310</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -4765,16 +4843,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>18958</v>
+        <v>15766</v>
       </c>
       <c r="B186" t="s">
+        <v>310</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
         <v>311</v>
-      </c>
-      <c r="C186" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" t="s">
-        <v>312</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -4782,16 +4860,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18968</v>
+        <v>15952</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -4799,16 +4877,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>19180</v>
+        <v>16324</v>
       </c>
       <c r="B188" t="s">
+        <v>313</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
         <v>314</v>
-      </c>
-      <c r="C188" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" t="s">
-        <v>315</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -4816,16 +4894,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>19839</v>
+        <v>16396</v>
       </c>
       <c r="B189" t="s">
+        <v>315</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
         <v>316</v>
-      </c>
-      <c r="C189" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" t="s">
-        <v>13</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -4833,7 +4911,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>20580</v>
+        <v>16669</v>
       </c>
       <c r="B190" t="s">
         <v>317</v>
@@ -4842,7 +4920,7 @@
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -4850,7 +4928,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>20703</v>
+        <v>16887</v>
       </c>
       <c r="B191" t="s">
         <v>318</v>
@@ -4867,7 +4945,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>21216</v>
+        <v>17104</v>
       </c>
       <c r="B192" t="s">
         <v>319</v>
@@ -4876,7 +4954,7 @@
         <v>12</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="E192" t="n">
         <v>1</v>
@@ -4884,16 +4962,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>21526</v>
+        <v>17436</v>
       </c>
       <c r="B193" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>321</v>
+        <v>13</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -4901,13 +4979,13 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>21575</v>
+        <v>17964</v>
       </c>
       <c r="B194" t="s">
         <v>322</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D194" t="s">
         <v>323</v>
@@ -4918,16 +4996,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>21625</v>
+        <v>18106</v>
       </c>
       <c r="B195" t="s">
         <v>324</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -4935,16 +5013,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>21792</v>
+        <v>18252</v>
       </c>
       <c r="B196" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>326</v>
+        <v>13</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -4952,16 +5030,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>21793</v>
+        <v>18289</v>
       </c>
       <c r="B197" t="s">
         <v>327</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -4969,16 +5047,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>21846</v>
+        <v>18404</v>
       </c>
       <c r="B198" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
@@ -4986,16 +5064,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>21974</v>
+        <v>18486</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>331</v>
+        <v>13</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -5003,16 +5081,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>22078</v>
+        <v>18538</v>
       </c>
       <c r="B200" t="s">
         <v>332</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5020,16 +5098,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>22162</v>
+        <v>18583</v>
       </c>
       <c r="B201" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -5037,16 +5115,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>22213</v>
+        <v>18898</v>
       </c>
       <c r="B202" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -5054,16 +5132,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>22255</v>
+        <v>18958</v>
       </c>
       <c r="B203" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -5071,16 +5149,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>22323</v>
+        <v>18968</v>
       </c>
       <c r="B204" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -5088,16 +5166,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>23611</v>
+        <v>19021</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -5105,16 +5183,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>23987</v>
+        <v>19839</v>
       </c>
       <c r="B206" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -5122,16 +5200,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>24026</v>
+        <v>20580</v>
       </c>
       <c r="B207" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>342</v>
+        <v>13</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5139,16 +5217,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>24095</v>
+        <v>20703</v>
       </c>
       <c r="B208" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
@@ -5156,16 +5234,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>24151</v>
+        <v>21216</v>
       </c>
       <c r="B209" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="E209" t="n">
         <v>1</v>
@@ -5173,16 +5251,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>24321</v>
+        <v>21526</v>
       </c>
       <c r="B210" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -5190,16 +5268,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>24364</v>
+        <v>21575</v>
       </c>
       <c r="B211" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -5207,16 +5285,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>24368</v>
+        <v>21625</v>
       </c>
       <c r="B212" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5224,10 +5302,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>24904</v>
+        <v>21727</v>
       </c>
       <c r="B213" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -5241,16 +5319,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>25214</v>
+        <v>21792</v>
       </c>
       <c r="B214" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -5258,16 +5336,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>25218</v>
+        <v>21793</v>
       </c>
       <c r="B215" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -5275,16 +5353,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>25275</v>
+        <v>21846</v>
       </c>
       <c r="B216" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E216" t="n">
         <v>1</v>
@@ -5292,16 +5370,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>25300</v>
+        <v>21974</v>
       </c>
       <c r="B217" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>13</v>
+        <v>359</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -5309,16 +5387,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25460</v>
+        <v>22078</v>
       </c>
       <c r="B218" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>358</v>
+        <v>13</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5326,16 +5404,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>25743</v>
+        <v>22162</v>
       </c>
       <c r="B219" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="E219" t="n">
         <v>1</v>
@@ -5343,16 +5421,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>25897</v>
+        <v>22213</v>
       </c>
       <c r="B220" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>361</v>
+        <v>13</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5360,16 +5438,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>25913</v>
+        <v>22255</v>
       </c>
       <c r="B221" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -5377,13 +5455,13 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>25930</v>
+        <v>22323</v>
       </c>
       <c r="B222" t="s">
         <v>364</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D222" t="s">
         <v>365</v>
@@ -5394,16 +5472,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>26158</v>
+        <v>23611</v>
       </c>
       <c r="B223" t="s">
         <v>366</v>
       </c>
       <c r="C223" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>367</v>
+        <v>13</v>
       </c>
       <c r="E223" t="n">
         <v>1</v>
@@ -5411,16 +5489,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>26233</v>
+        <v>23987</v>
       </c>
       <c r="B224" t="s">
+        <v>367</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
         <v>368</v>
-      </c>
-      <c r="C224" t="s">
-        <v>9</v>
-      </c>
-      <c r="D224" t="s">
-        <v>10</v>
       </c>
       <c r="E224" t="n">
         <v>1</v>
@@ -5428,16 +5506,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>26333</v>
+        <v>24026</v>
       </c>
       <c r="B225" t="s">
         <v>369</v>
       </c>
       <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
         <v>370</v>
-      </c>
-      <c r="D225" t="s">
-        <v>371</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -5445,16 +5523,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>26447</v>
+        <v>24138</v>
       </c>
       <c r="B226" t="s">
+        <v>371</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
         <v>372</v>
-      </c>
-      <c r="C226" t="s">
-        <v>370</v>
-      </c>
-      <c r="D226" t="s">
-        <v>373</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
@@ -5462,16 +5540,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>26460</v>
+        <v>24151</v>
       </c>
       <c r="B227" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C227" t="s">
-        <v>370</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5479,16 +5557,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>26461</v>
+        <v>24321</v>
       </c>
       <c r="B228" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C228" t="s">
-        <v>370</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -5496,16 +5574,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>26660</v>
+        <v>24364</v>
       </c>
       <c r="B229" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C229" t="s">
-        <v>378</v>
+        <v>6</v>
       </c>
       <c r="D229" t="s">
-        <v>379</v>
+        <v>13</v>
       </c>
       <c r="E229" t="n">
         <v>1</v>
@@ -5513,16 +5591,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>26690</v>
+        <v>24368</v>
       </c>
       <c r="B230" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C230" t="s">
-        <v>378</v>
+        <v>6</v>
       </c>
       <c r="D230" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5530,16 +5608,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>26842</v>
+        <v>24904</v>
       </c>
       <c r="B231" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C231" t="s">
-        <v>378</v>
+        <v>6</v>
       </c>
       <c r="D231" t="s">
-        <v>382</v>
+        <v>13</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -5547,16 +5625,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>26923</v>
+        <v>25214</v>
       </c>
       <c r="B232" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C232" t="s">
-        <v>378</v>
+        <v>6</v>
       </c>
       <c r="D232" t="s">
-        <v>384</v>
+        <v>13</v>
       </c>
       <c r="E232" t="n">
         <v>1</v>
@@ -5564,16 +5642,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>27230</v>
+        <v>25218</v>
       </c>
       <c r="B233" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C233" t="s">
-        <v>386</v>
+        <v>6</v>
       </c>
       <c r="D233" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5581,16 +5659,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>27725</v>
+        <v>25275</v>
       </c>
       <c r="B234" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C234" t="s">
-        <v>389</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="E234" t="n">
         <v>1</v>
@@ -5598,16 +5676,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>27739</v>
+        <v>25300</v>
       </c>
       <c r="B235" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C235" t="s">
-        <v>389</v>
+        <v>6</v>
       </c>
       <c r="D235" t="s">
-        <v>391</v>
+        <v>13</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -5615,16 +5693,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>27792</v>
+        <v>25460</v>
       </c>
       <c r="B236" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D236" t="s">
-        <v>285</v>
+        <v>386</v>
       </c>
       <c r="E236" t="n">
         <v>1</v>
@@ -5632,16 +5710,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>27798</v>
+        <v>25662</v>
       </c>
       <c r="B237" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D237" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -5649,16 +5727,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>27920</v>
+        <v>25743</v>
       </c>
       <c r="B238" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="E238" t="n">
         <v>1</v>
@@ -5666,16 +5744,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>27923</v>
+        <v>25897</v>
       </c>
       <c r="B239" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D239" t="s">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -5683,16 +5761,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>28005</v>
+        <v>25913</v>
       </c>
       <c r="B240" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C240" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -5700,16 +5778,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>28262</v>
+        <v>25930</v>
       </c>
       <c r="B241" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -5717,16 +5795,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>28300</v>
+        <v>26158</v>
       </c>
       <c r="B242" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D242" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -5734,16 +5812,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>28376</v>
+        <v>26233</v>
       </c>
       <c r="B243" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>402</v>
+        <v>10</v>
       </c>
       <c r="E243" t="n">
         <v>1</v>
@@ -5751,16 +5829,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>28417</v>
+        <v>26333</v>
       </c>
       <c r="B244" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>400</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -5768,16 +5846,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>28677</v>
+        <v>26447</v>
       </c>
       <c r="B245" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="D245" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
@@ -5785,16 +5863,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>28817</v>
+        <v>26460</v>
       </c>
       <c r="B246" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C246" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="D246" t="s">
-        <v>407</v>
+        <v>13</v>
       </c>
       <c r="E246" t="n">
         <v>1</v>
@@ -5802,16 +5880,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>28829</v>
+        <v>26461</v>
       </c>
       <c r="B247" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C247" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="D247" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -5819,16 +5897,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>28849</v>
+        <v>26660</v>
       </c>
       <c r="B248" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C248" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="D248" t="s">
-        <v>13</v>
+        <v>408</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -5836,16 +5914,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>28866</v>
+        <v>26690</v>
       </c>
       <c r="B249" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="D249" t="s">
-        <v>412</v>
+        <v>13</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -5853,16 +5931,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>28887</v>
+        <v>26842</v>
       </c>
       <c r="B250" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C250" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="D250" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -5870,16 +5948,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>28893</v>
+        <v>26923</v>
       </c>
       <c r="B251" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="D251" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E251" t="n">
         <v>1</v>
@@ -5887,16 +5965,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>28905</v>
+        <v>27230</v>
       </c>
       <c r="B252" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C252" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="D252" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E252" t="n">
         <v>1</v>
@@ -5904,16 +5982,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>29160</v>
+        <v>27725</v>
       </c>
       <c r="B253" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C253" t="s">
-        <v>36</v>
+        <v>418</v>
       </c>
       <c r="D253" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="E253" t="n">
         <v>1</v>
@@ -5921,16 +5999,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>29200</v>
+        <v>27739</v>
       </c>
       <c r="B254" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>418</v>
       </c>
       <c r="D254" t="s">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="E254" t="n">
         <v>1</v>
@@ -5938,16 +6016,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>29439</v>
+        <v>27792</v>
       </c>
       <c r="B255" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C255" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>423</v>
+        <v>314</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -5955,10 +6033,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>29836</v>
+        <v>27798</v>
       </c>
       <c r="B256" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
@@ -5967,6 +6045,295 @@
         <v>10</v>
       </c>
       <c r="E256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>28005</v>
+      </c>
+      <c r="B257" t="s">
+        <v>423</v>
+      </c>
+      <c r="C257" t="s">
+        <v>17</v>
+      </c>
+      <c r="D257" t="s">
+        <v>424</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>28262</v>
+      </c>
+      <c r="B258" t="s">
+        <v>425</v>
+      </c>
+      <c r="C258" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>28376</v>
+      </c>
+      <c r="B259" t="s">
+        <v>426</v>
+      </c>
+      <c r="C259" t="s">
+        <v>29</v>
+      </c>
+      <c r="D259" t="s">
+        <v>427</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>28386</v>
+      </c>
+      <c r="B260" t="s">
+        <v>428</v>
+      </c>
+      <c r="C260" t="s">
+        <v>29</v>
+      </c>
+      <c r="D260" t="s">
+        <v>429</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>28417</v>
+      </c>
+      <c r="B261" t="s">
+        <v>430</v>
+      </c>
+      <c r="C261" t="s">
+        <v>29</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>28444</v>
+      </c>
+      <c r="B262" t="s">
+        <v>431</v>
+      </c>
+      <c r="C262" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>28817</v>
+      </c>
+      <c r="B263" t="s">
+        <v>432</v>
+      </c>
+      <c r="C263" t="s">
+        <v>29</v>
+      </c>
+      <c r="D263" t="s">
+        <v>433</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>28829</v>
+      </c>
+      <c r="B264" t="s">
+        <v>434</v>
+      </c>
+      <c r="C264" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264" t="s">
+        <v>435</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>28849</v>
+      </c>
+      <c r="B265" t="s">
+        <v>436</v>
+      </c>
+      <c r="C265" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>28866</v>
+      </c>
+      <c r="B266" t="s">
+        <v>437</v>
+      </c>
+      <c r="C266" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266" t="s">
+        <v>438</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>28887</v>
+      </c>
+      <c r="B267" t="s">
+        <v>439</v>
+      </c>
+      <c r="C267" t="s">
+        <v>29</v>
+      </c>
+      <c r="D267" t="s">
+        <v>440</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>28905</v>
+      </c>
+      <c r="B268" t="s">
+        <v>441</v>
+      </c>
+      <c r="C268" t="s">
+        <v>29</v>
+      </c>
+      <c r="D268" t="s">
+        <v>442</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>29160</v>
+      </c>
+      <c r="B269" t="s">
+        <v>443</v>
+      </c>
+      <c r="C269" t="s">
+        <v>29</v>
+      </c>
+      <c r="D269" t="s">
+        <v>444</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>29200</v>
+      </c>
+      <c r="B270" t="s">
+        <v>445</v>
+      </c>
+      <c r="C270" t="s">
+        <v>29</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>29439</v>
+      </c>
+      <c r="B271" t="s">
+        <v>446</v>
+      </c>
+      <c r="C271" t="s">
+        <v>29</v>
+      </c>
+      <c r="D271" t="s">
+        <v>447</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>29648</v>
+      </c>
+      <c r="B272" t="s">
+        <v>448</v>
+      </c>
+      <c r="C272" t="s">
+        <v>114</v>
+      </c>
+      <c r="D272" t="s">
+        <v>449</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>29836</v>
+      </c>
+      <c r="B273" t="s">
+        <v>450</v>
+      </c>
+      <c r="C273" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" t="n">
         <v>1</v>
       </c>
     </row>

--- a/summaries/trials/UPHS/variantSummary.xlsx
+++ b/summaries/trials/UPHS/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="576">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -92,21 +92,27 @@
     <t xml:space="preserve">T265I</t>
   </si>
   <si>
+    <t xml:space="preserve">C28854T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S194L</t>
+  </si>
+  <si>
     <t xml:space="preserve">A20268G</t>
   </si>
   <si>
-    <t xml:space="preserve">C28854T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S194L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C16260T</t>
   </si>
   <si>
+    <t xml:space="preserve">C23604A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P681H</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1578C</t>
   </si>
   <si>
@@ -128,12 +134,6 @@
     <t xml:space="preserve">C10741T</t>
   </si>
   <si>
-    <t xml:space="preserve">C23604A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P681H</t>
-  </si>
-  <si>
     <t xml:space="preserve">T24076C</t>
   </si>
   <si>
@@ -143,6 +143,12 @@
     <t xml:space="preserve">T29710C</t>
   </si>
   <si>
+    <t xml:space="preserve">C28821A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S183Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">G18255T</t>
   </si>
   <si>
@@ -158,12 +164,6 @@
     <t xml:space="preserve">G142S</t>
   </si>
   <si>
-    <t xml:space="preserve">C28821A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S183Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">C11916T</t>
   </si>
   <si>
@@ -179,27 +179,27 @@
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
+    <t xml:space="preserve">G28881A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R203K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28882A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28883C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G204R</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1918C</t>
   </si>
   <si>
     <t xml:space="preserve">C23230T</t>
   </si>
   <si>
-    <t xml:space="preserve">G28881A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R203K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28882A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G28883C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G204R</t>
-  </si>
-  <si>
     <t xml:space="preserve">T7386C</t>
   </si>
   <si>
@@ -281,6 +281,9 @@
     <t xml:space="preserve">R2613C</t>
   </si>
   <si>
+    <t xml:space="preserve">T22162C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G24197T</t>
   </si>
   <si>
@@ -293,6 +296,9 @@
     <t xml:space="preserve">G172V</t>
   </si>
   <si>
+    <t xml:space="preserve">C27923T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28109T</t>
   </si>
   <si>
@@ -317,6 +323,18 @@
     <t xml:space="preserve">T325I</t>
   </si>
   <si>
+    <t xml:space="preserve">C29445T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T391I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T692C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F143L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2485T</t>
   </si>
   <si>
@@ -326,15 +344,36 @@
     <t xml:space="preserve">Q998H</t>
   </si>
   <si>
+    <t xml:space="preserve">A3278G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1005V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C4002T</t>
   </si>
   <si>
     <t xml:space="preserve">T1246I</t>
   </si>
   <si>
+    <t xml:space="preserve">A5011C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1582H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5497T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6388T</t>
   </si>
   <si>
+    <t xml:space="preserve">T7168C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10507T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11591T</t>
   </si>
   <si>
@@ -347,6 +386,12 @@
     <t xml:space="preserve">T4083M</t>
   </si>
   <si>
+    <t xml:space="preserve">C12525T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4087I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C15857T</t>
   </si>
   <si>
@@ -359,28 +404,61 @@
     <t xml:space="preserve">A1219S</t>
   </si>
   <si>
+    <t xml:space="preserve">G18028T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1521S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18486T</t>
+  </si>
+  <si>
     <t xml:space="preserve">A18650T</t>
   </si>
   <si>
     <t xml:space="preserve">E1728V</t>
   </si>
   <si>
+    <t xml:space="preserve">G19180T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G24095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A845S</t>
+  </si>
+  <si>
     <t xml:space="preserve">A26069G</t>
   </si>
   <si>
     <t xml:space="preserve">E226G</t>
   </si>
   <si>
-    <t xml:space="preserve">C27923T</t>
+    <t xml:space="preserve">C27920T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28300T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9H</t>
   </si>
   <si>
     <t xml:space="preserve">C28609T</t>
   </si>
   <si>
-    <t xml:space="preserve">C29445T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T391I</t>
+    <t xml:space="preserve">C28677T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T135I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28893T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P207L</t>
   </si>
   <si>
     <t xml:space="preserve">C29614T</t>
@@ -392,10 +470,10 @@
     <t xml:space="preserve">C157T</t>
   </si>
   <si>
-    <t xml:space="preserve">T692C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F143L</t>
+    <t xml:space="preserve">C843T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P193L</t>
   </si>
   <si>
     <t xml:space="preserve">A2219G</t>
@@ -410,6 +488,12 @@
     <t xml:space="preserve">T666I</t>
   </si>
   <si>
+    <t xml:space="preserve">C2306T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L681F</t>
+  </si>
+  <si>
     <t xml:space="preserve">A2342G</t>
   </si>
   <si>
@@ -419,13 +503,10 @@
     <t xml:space="preserve">C2416T</t>
   </si>
   <si>
-    <t xml:space="preserve">A5011C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1582H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5497T</t>
+    <t xml:space="preserve">C2706T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T814I</t>
   </si>
   <si>
     <t xml:space="preserve">A5570G</t>
@@ -434,9 +515,6 @@
     <t xml:space="preserve">M1769V</t>
   </si>
   <si>
-    <t xml:space="preserve">T7168C</t>
-  </si>
-  <si>
     <t xml:space="preserve">G7393T</t>
   </si>
   <si>
@@ -446,6 +524,9 @@
     <t xml:space="preserve">M2606I</t>
   </si>
   <si>
+    <t xml:space="preserve">C9559T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T10665C</t>
   </si>
   <si>
@@ -458,12 +539,6 @@
     <t xml:space="preserve">N3537D</t>
   </si>
   <si>
-    <t xml:space="preserve">C12525T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4087I</t>
-  </si>
-  <si>
     <t xml:space="preserve">G13975T</t>
   </si>
   <si>
@@ -473,9 +548,18 @@
     <t xml:space="preserve">C14805T</t>
   </si>
   <si>
+    <t xml:space="preserve">T16176C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C16887T</t>
   </si>
   <si>
+    <t xml:space="preserve">G16912T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1149L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17436T</t>
   </si>
   <si>
@@ -485,12 +569,6 @@
     <t xml:space="preserve">A1326T</t>
   </si>
   <si>
-    <t xml:space="preserve">G18028T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1521S</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18348T</t>
   </si>
   <si>
@@ -500,78 +578,78 @@
     <t xml:space="preserve">P1682L</t>
   </si>
   <si>
-    <t xml:space="preserve">G19180T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1905L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C19524T</t>
   </si>
   <si>
+    <t xml:space="preserve">C21846A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T95N</t>
+  </si>
+  <si>
     <t xml:space="preserve">G22317A</t>
   </si>
   <si>
     <t xml:space="preserve">G252D</t>
   </si>
   <si>
-    <t xml:space="preserve">G24095T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A845S</t>
+    <t xml:space="preserve">C23271T, C23271A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A570V, A570D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G25913A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G174D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26447T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S68F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T26460C</t>
   </si>
   <si>
     <t xml:space="preserve">C26461T</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">L73F</t>
   </si>
   <si>
-    <t xml:space="preserve">C27920T</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28068T</t>
   </si>
   <si>
     <t xml:space="preserve">E59*</t>
   </si>
   <si>
-    <t xml:space="preserve">G28300T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q9H</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28376T</t>
   </si>
   <si>
     <t xml:space="preserve">A35S</t>
   </si>
   <si>
-    <t xml:space="preserve">C28677T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T135I</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28849T</t>
   </si>
   <si>
-    <t xml:space="preserve">C28893T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P207L</t>
-  </si>
-  <si>
     <t xml:space="preserve">G29747T</t>
   </si>
   <si>
     <t xml:space="preserve">C583T</t>
   </si>
   <si>
+    <t xml:space="preserve">C593T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H110Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">G625T</t>
   </si>
   <si>
@@ -587,6 +665,9 @@
     <t xml:space="preserve">C841T</t>
   </si>
   <si>
+    <t xml:space="preserve">C913T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C920T</t>
   </si>
   <si>
@@ -653,6 +734,12 @@
     <t xml:space="preserve">V665I</t>
   </si>
   <si>
+    <t xml:space="preserve">G2286A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S674N</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2334T</t>
   </si>
   <si>
@@ -689,10 +776,10 @@
     <t xml:space="preserve">P971S</t>
   </si>
   <si>
-    <t xml:space="preserve">A3278G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I1005V</t>
+    <t xml:space="preserve">C3267T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1001I</t>
   </si>
   <si>
     <t xml:space="preserve">T3312C</t>
@@ -734,6 +821,12 @@
     <t xml:space="preserve">T4183C</t>
   </si>
   <si>
+    <t xml:space="preserve">A4197G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1311G</t>
+  </si>
+  <si>
     <t xml:space="preserve">G4201T</t>
   </si>
   <si>
@@ -755,6 +848,12 @@
     <t xml:space="preserve">H1610R</t>
   </si>
   <si>
+    <t xml:space="preserve">C5388A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1708D</t>
+  </si>
+  <si>
     <t xml:space="preserve">A5500G</t>
   </si>
   <si>
@@ -782,6 +881,12 @@
     <t xml:space="preserve">E1826A</t>
   </si>
   <si>
+    <t xml:space="preserve">C5884T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5986T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T6025C</t>
   </si>
   <si>
@@ -833,6 +938,12 @@
     <t xml:space="preserve">P2221S</t>
   </si>
   <si>
+    <t xml:space="preserve">T6954C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2230T</t>
+  </si>
+  <si>
     <t xml:space="preserve">CTTT7012delT</t>
   </si>
   <si>
@@ -860,6 +971,12 @@
     <t xml:space="preserve">T2532I</t>
   </si>
   <si>
+    <t xml:space="preserve">G7954T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2563H</t>
+  </si>
+  <si>
     <t xml:space="preserve">G7975A</t>
   </si>
   <si>
@@ -890,6 +1007,12 @@
     <t xml:space="preserve">I2765V</t>
   </si>
   <si>
+    <t xml:space="preserve">T8603C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2780L</t>
+  </si>
+  <si>
     <t xml:space="preserve">A9204G</t>
   </si>
   <si>
@@ -914,7 +1037,13 @@
     <t xml:space="preserve">S3244L</t>
   </si>
   <si>
-    <t xml:space="preserve">C10507T</t>
+    <t xml:space="preserve">C10448T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3395S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10552G</t>
   </si>
   <si>
     <t xml:space="preserve">C11095T</t>
@@ -932,6 +1061,15 @@
     <t xml:space="preserve">I3618T</t>
   </si>
   <si>
+    <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G11365T</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTTTTT11522delT</t>
   </si>
   <si>
@@ -989,6 +1127,12 @@
     <t xml:space="preserve">T76I</t>
   </si>
   <si>
+    <t xml:space="preserve">C13792T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R109C</t>
+  </si>
+  <si>
     <t xml:space="preserve">G13813C</t>
   </si>
   <si>
@@ -1007,6 +1151,9 @@
     <t xml:space="preserve">N394S</t>
   </si>
   <si>
+    <t xml:space="preserve">C14676T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C14790T</t>
   </si>
   <si>
@@ -1016,12 +1163,21 @@
     <t xml:space="preserve">T14817C</t>
   </si>
   <si>
+    <t xml:space="preserve">A15082G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I539V</t>
+  </si>
+  <si>
     <t xml:space="preserve">C15212T</t>
   </si>
   <si>
     <t xml:space="preserve">T582I</t>
   </si>
   <si>
+    <t xml:space="preserve">C15279T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T15326C</t>
   </si>
   <si>
@@ -1040,6 +1196,9 @@
     <t xml:space="preserve">V628I</t>
   </si>
   <si>
+    <t xml:space="preserve">C15540T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G15766T</t>
   </si>
   <si>
@@ -1049,7 +1208,13 @@
     <t xml:space="preserve">C15952T</t>
   </si>
   <si>
-    <t xml:space="preserve">T16176C</t>
+    <t xml:space="preserve">G16075A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D870N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16111T</t>
   </si>
   <si>
     <t xml:space="preserve">CTGT16324delTG</t>
@@ -1058,6 +1223,9 @@
     <t xml:space="preserve">del 2</t>
   </si>
   <si>
+    <t xml:space="preserve">C16362T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G16396A</t>
   </si>
   <si>
@@ -1073,6 +1241,12 @@
     <t xml:space="preserve">H1213Y</t>
   </si>
   <si>
+    <t xml:space="preserve">A17615G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K1383R</t>
+  </si>
+  <si>
     <t xml:space="preserve">G17964T</t>
   </si>
   <si>
@@ -1100,9 +1274,6 @@
     <t xml:space="preserve">T1646I</t>
   </si>
   <si>
-    <t xml:space="preserve">C18486T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18508T</t>
   </si>
   <si>
@@ -1148,6 +1319,9 @@
     <t xml:space="preserve">T19839C</t>
   </si>
   <si>
+    <t xml:space="preserve">C20178T</t>
+  </si>
+  <si>
     <t xml:space="preserve">G20580T</t>
   </si>
   <si>
@@ -1190,6 +1364,12 @@
     <t xml:space="preserve">C21727T</t>
   </si>
   <si>
+    <t xml:space="preserve">ATACATGT21765delTACATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">A21792T</t>
   </si>
   <si>
@@ -1199,24 +1379,21 @@
     <t xml:space="preserve">G21793T</t>
   </si>
   <si>
-    <t xml:space="preserve">C21846A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T95N</t>
-  </si>
-  <si>
     <t xml:space="preserve">G21974C</t>
   </si>
   <si>
     <t xml:space="preserve">D138H</t>
   </si>
   <si>
+    <t xml:space="preserve">TTTATTA21991delTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">T22078G</t>
   </si>
   <si>
-    <t xml:space="preserve">T22162C</t>
-  </si>
-  <si>
     <t xml:space="preserve">T22213G</t>
   </si>
   <si>
@@ -1229,10 +1406,16 @@
     <t xml:space="preserve">S254F</t>
   </si>
   <si>
-    <t xml:space="preserve">C23271T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A570V</t>
+    <t xml:space="preserve">G22992A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S477N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23063T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N501Y</t>
   </si>
   <si>
     <t xml:space="preserve">G23426T</t>
@@ -1244,6 +1427,12 @@
     <t xml:space="preserve">G23611T</t>
   </si>
   <si>
+    <t xml:space="preserve">C23709T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T716I</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23758T</t>
   </si>
   <si>
@@ -1256,9 +1445,6 @@
     <t xml:space="preserve">ACTT24026delCTT</t>
   </si>
   <si>
-    <t xml:space="preserve">del 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">C24138T</t>
   </si>
   <si>
@@ -1280,9 +1466,24 @@
     <t xml:space="preserve">D936Y</t>
   </si>
   <si>
+    <t xml:space="preserve">C24382T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24506G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S982A</t>
+  </si>
+  <si>
     <t xml:space="preserve">C24904T</t>
   </si>
   <si>
+    <t xml:space="preserve">G24914C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1118H</t>
+  </si>
+  <si>
     <t xml:space="preserve">C25214T</t>
   </si>
   <si>
@@ -1301,6 +1502,12 @@
     <t xml:space="preserve">C25300T</t>
   </si>
   <si>
+    <t xml:space="preserve">G25437T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L15F</t>
+  </si>
+  <si>
     <t xml:space="preserve">C25460T</t>
   </si>
   <si>
@@ -1325,12 +1532,6 @@
     <t xml:space="preserve">I169F</t>
   </si>
   <si>
-    <t xml:space="preserve">G25913A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G174D</t>
-  </si>
-  <si>
     <t xml:space="preserve">T25930C</t>
   </si>
   <si>
@@ -1352,15 +1553,6 @@
     <t xml:space="preserve">T30I</t>
   </si>
   <si>
-    <t xml:space="preserve">C26447T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S68F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T26460C</t>
-  </si>
-  <si>
     <t xml:space="preserve">G26660T</t>
   </si>
   <si>
@@ -1418,15 +1610,54 @@
     <t xml:space="preserve">G27798T</t>
   </si>
   <si>
+    <t xml:space="preserve">C27972T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27*</t>
+  </si>
+  <si>
     <t xml:space="preserve">C28005T</t>
   </si>
   <si>
     <t xml:space="preserve">P38S</t>
   </si>
   <si>
+    <t xml:space="preserve">G28048T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28111G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y73C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T28216C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F108S</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28262C</t>
   </si>
   <si>
+    <t xml:space="preserve">TAAAA28271delA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28280C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28281T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T28282A</t>
+  </si>
+  <si>
     <t xml:space="preserve">A28386T</t>
   </si>
   <si>
@@ -1436,9 +1667,18 @@
     <t xml:space="preserve">T28417C</t>
   </si>
   <si>
+    <t xml:space="preserve">C28435T</t>
+  </si>
+  <si>
     <t xml:space="preserve">T28444A</t>
   </si>
   <si>
+    <t xml:space="preserve">A28715T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T148S</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28817A</t>
   </si>
   <si>
@@ -1467,6 +1707,15 @@
   </si>
   <si>
     <t xml:space="preserve">A211V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28936A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28977T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S235F</t>
   </si>
   <si>
     <t xml:space="preserve">C29160T</t>
@@ -1853,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -1870,7 +2119,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -1887,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -1904,7 +2153,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -1921,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -1938,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1955,7 +2204,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1972,7 +2221,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1989,41 +2238,41 @@
         <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20268</v>
+        <v>28854</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28854</v>
+        <v>20268</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2040,29 +2289,29 @@
         <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1578</v>
+        <v>23604</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6618</v>
+        <v>1578</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
@@ -2074,12 +2323,12 @@
         <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7833</v>
+        <v>6618</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -2091,12 +2340,12 @@
         <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10741</v>
+        <v>7833</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -2105,27 +2354,27 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23604</v>
+        <v>10741</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2142,7 +2391,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2153,13 +2402,13 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -2176,29 +2425,29 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18255</v>
+        <v>28821</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>18877</v>
+        <v>18255</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -2207,24 +2456,24 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21986</v>
+        <v>18877</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -2232,13 +2481,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>28821</v>
+        <v>21986</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>49</v>
@@ -2300,67 +2549,67 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1918</v>
+        <v>28881</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>23230</v>
+        <v>28882</v>
       </c>
       <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28881</v>
+        <v>28883</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>28882</v>
+        <v>1918</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
@@ -2368,16 +2617,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28883</v>
+        <v>23230</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
@@ -2493,7 +2742,7 @@
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
@@ -2640,7 +2889,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24197</v>
+        <v>22162</v>
       </c>
       <c r="B49" t="s">
         <v>89</v>
@@ -2649,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -2657,16 +2906,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25907</v>
+        <v>24197</v>
       </c>
       <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" t="s">
-        <v>92</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -2674,16 +2923,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>28109</v>
+        <v>25907</v>
       </c>
       <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>94</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -2691,16 +2940,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28472</v>
+        <v>27923</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E52" t="n">
         <v>4</v>
@@ -2708,16 +2957,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>28869</v>
+        <v>28109</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E53" t="n">
         <v>4</v>
@@ -2725,16 +2974,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>29247</v>
+        <v>28472</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -2742,67 +2991,67 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2485</v>
+        <v>28869</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3259</v>
+        <v>29247</v>
       </c>
       <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
         <v>102</v>
       </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>103</v>
-      </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4002</v>
+        <v>29445</v>
       </c>
       <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
         <v>104</v>
       </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>105</v>
-      </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6388</v>
+        <v>692</v>
       </c>
       <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
         <v>106</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
@@ -2810,7 +3059,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11591</v>
+        <v>2485</v>
       </c>
       <c r="B59" t="s">
         <v>107</v>
@@ -2819,7 +3068,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -2827,16 +3076,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12513</v>
+        <v>3259</v>
       </c>
       <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" t="s">
-        <v>110</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
@@ -2844,16 +3093,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15857</v>
+        <v>3278</v>
       </c>
       <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
         <v>111</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>112</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
@@ -2861,16 +3110,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>17122</v>
+        <v>4002</v>
       </c>
       <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
         <v>113</v>
-      </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>114</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -2878,16 +3127,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18650</v>
+        <v>5011</v>
       </c>
       <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
         <v>115</v>
-      </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" t="s">
-        <v>116</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
@@ -2895,16 +3144,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>26069</v>
+        <v>5497</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
@@ -2912,13 +3161,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>27923</v>
+        <v>6388</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
@@ -2929,13 +3178,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>28609</v>
+        <v>7168</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -2946,16 +3195,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>29445</v>
+        <v>10507</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
@@ -2963,16 +3212,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>29614</v>
+        <v>11591</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
@@ -2980,95 +3229,95 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>157</v>
+        <v>12513</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>692</v>
+        <v>12525</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2219</v>
+        <v>15857</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2262</v>
+        <v>17122</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2342</v>
+        <v>18028</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2416</v>
+        <v>18486</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
         <v>12</v>
@@ -3077,191 +3326,191 @@
         <v>13</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5011</v>
+        <v>18650</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5497</v>
+        <v>19180</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5570</v>
+        <v>24095</v>
       </c>
       <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
         <v>138</v>
       </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>139</v>
-      </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7168</v>
+        <v>26069</v>
       </c>
       <c r="B78" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
         <v>140</v>
       </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7393</v>
+        <v>27920</v>
       </c>
       <c r="B79" t="s">
         <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8083</v>
+        <v>28300</v>
       </c>
       <c r="B80" t="s">
         <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
         <v>143</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10665</v>
+        <v>28609</v>
       </c>
       <c r="B81" t="s">
         <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10874</v>
+        <v>28677</v>
       </c>
       <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
         <v>146</v>
       </c>
-      <c r="C82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" t="s">
-        <v>147</v>
-      </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>12525</v>
+        <v>28893</v>
       </c>
       <c r="B83" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
         <v>148</v>
       </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>149</v>
-      </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13975</v>
+        <v>29614</v>
       </c>
       <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
         <v>150</v>
       </c>
-      <c r="C84" t="s">
-        <v>12</v>
-      </c>
       <c r="D84" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>14805</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -3269,16 +3518,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16887</v>
+        <v>843</v>
       </c>
       <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
         <v>153</v>
-      </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -3286,7 +3535,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>17436</v>
+        <v>2219</v>
       </c>
       <c r="B87" t="s">
         <v>154</v>
@@ -3295,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -3303,16 +3552,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17443</v>
+        <v>2262</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -3320,16 +3569,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>18028</v>
+        <v>2306</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -3337,16 +3586,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>18348</v>
+        <v>2342</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -3354,16 +3603,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>18512</v>
+        <v>2416</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -3371,16 +3620,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>19180</v>
+        <v>2706</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -3388,16 +3637,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19524</v>
+        <v>5570</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
@@ -3405,16 +3654,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>22317</v>
+        <v>7393</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -3422,16 +3671,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>24095</v>
+        <v>8083</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E95" t="n">
         <v>2</v>
@@ -3439,16 +3688,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>26461</v>
+        <v>9559</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -3456,16 +3705,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>27920</v>
+        <v>10665</v>
       </c>
       <c r="B97" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
         <v>172</v>
-      </c>
-      <c r="C97" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" t="s">
-        <v>13</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -3473,13 +3722,13 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>28068</v>
+        <v>10874</v>
       </c>
       <c r="B98" t="s">
         <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D98" t="s">
         <v>174</v>
@@ -3490,13 +3739,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>28300</v>
+        <v>13975</v>
       </c>
       <c r="B99" t="s">
         <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
         <v>176</v>
@@ -3507,16 +3756,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>28376</v>
+        <v>14805</v>
       </c>
       <c r="B100" t="s">
         <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -3524,16 +3773,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>28677</v>
+        <v>16176</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
@@ -3541,13 +3790,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>28849</v>
+        <v>16887</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
@@ -3558,16 +3807,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>28893</v>
+        <v>16912</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -3575,16 +3824,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>29747</v>
+        <v>17436</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" t="n">
         <v>2</v>
@@ -3592,61 +3841,61 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>583</v>
+        <v>17443</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>625</v>
+        <v>18348</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>678</v>
+        <v>18512</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>841</v>
+        <v>19524</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -3655,208 +3904,208 @@
         <v>13</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>920</v>
+        <v>21846</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>931</v>
+        <v>22317</v>
       </c>
       <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
         <v>192</v>
       </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" t="s">
-        <v>13</v>
-      </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1387</v>
+        <v>23271</v>
       </c>
       <c r="B111" t="s">
         <v>193</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
         <v>194</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1403</v>
+        <v>25913</v>
       </c>
       <c r="B112" t="s">
         <v>195</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
         <v>196</v>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1563</v>
+        <v>26447</v>
       </c>
       <c r="B113" t="s">
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="D113" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1594</v>
+        <v>26460</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1715</v>
+        <v>26461</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="D115" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1884</v>
+        <v>28068</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1912</v>
+        <v>28376</v>
       </c>
       <c r="B117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1927</v>
+        <v>28849</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2040</v>
+        <v>29747</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2070</v>
+        <v>583</v>
       </c>
       <c r="B120" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -3864,7 +4113,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2113</v>
+        <v>593</v>
       </c>
       <c r="B121" t="s">
         <v>210</v>
@@ -3873,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -3881,16 +4130,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2258</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -3898,16 +4147,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2334</v>
+        <v>678</v>
       </c>
       <c r="B123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -3915,10 +4164,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2536</v>
+        <v>841</v>
       </c>
       <c r="B124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
@@ -3932,10 +4181,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2644</v>
+        <v>913</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -3949,16 +4198,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2726</v>
+        <v>920</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -3966,7 +4215,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2785</v>
+        <v>931</v>
       </c>
       <c r="B127" t="s">
         <v>219</v>
@@ -3983,7 +4232,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2788</v>
+        <v>1387</v>
       </c>
       <c r="B128" t="s">
         <v>220</v>
@@ -3992,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -4000,16 +4249,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2880</v>
+        <v>1403</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -4017,16 +4266,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3176</v>
+        <v>1563</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
@@ -4034,16 +4283,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3278</v>
+        <v>1594</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -4051,7 +4300,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3312</v>
+        <v>1715</v>
       </c>
       <c r="B132" t="s">
         <v>227</v>
@@ -4068,7 +4317,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3411</v>
+        <v>1884</v>
       </c>
       <c r="B133" t="s">
         <v>229</v>
@@ -4085,7 +4334,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3702</v>
+        <v>1912</v>
       </c>
       <c r="B134" t="s">
         <v>231</v>
@@ -4094,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -4102,16 +4351,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3714</v>
+        <v>1927</v>
       </c>
       <c r="B135" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -4119,16 +4368,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3991</v>
+        <v>2040</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -4136,16 +4385,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>4084</v>
+        <v>2070</v>
       </c>
       <c r="B137" t="s">
+        <v>235</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s">
         <v>236</v>
-      </c>
-      <c r="C137" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" t="s">
-        <v>13</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -4153,7 +4402,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4158</v>
+        <v>2113</v>
       </c>
       <c r="B138" t="s">
         <v>237</v>
@@ -4162,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -4170,16 +4419,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4183</v>
+        <v>2258</v>
       </c>
       <c r="B139" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" t="s">
         <v>239</v>
-      </c>
-      <c r="C139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" t="s">
-        <v>13</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -4187,7 +4436,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4201</v>
+        <v>2286</v>
       </c>
       <c r="B140" t="s">
         <v>240</v>
@@ -4204,7 +4453,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4540</v>
+        <v>2334</v>
       </c>
       <c r="B141" t="s">
         <v>242</v>
@@ -4213,7 +4462,7 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -4221,10 +4470,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4579</v>
+        <v>2536</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
@@ -4238,10 +4487,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4927</v>
+        <v>2644</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -4255,16 +4504,16 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5094</v>
+        <v>2726</v>
       </c>
       <c r="B144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -4272,10 +4521,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5500</v>
+        <v>2785</v>
       </c>
       <c r="B145" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -4289,16 +4538,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5529</v>
+        <v>2788</v>
       </c>
       <c r="B146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>249</v>
+        <v>13</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4306,7 +4555,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5554</v>
+        <v>2880</v>
       </c>
       <c r="B147" t="s">
         <v>250</v>
@@ -4323,7 +4572,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5730</v>
+        <v>3176</v>
       </c>
       <c r="B148" t="s">
         <v>252</v>
@@ -4340,7 +4589,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5742</v>
+        <v>3267</v>
       </c>
       <c r="B149" t="s">
         <v>254</v>
@@ -4357,7 +4606,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>6025</v>
+        <v>3312</v>
       </c>
       <c r="B150" t="s">
         <v>256</v>
@@ -4366,7 +4615,7 @@
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
@@ -4374,16 +4623,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6040</v>
+        <v>3411</v>
       </c>
       <c r="B151" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
@@ -4391,16 +4640,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>6285</v>
+        <v>3702</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
@@ -4408,16 +4657,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>6320</v>
+        <v>3714</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -4425,16 +4674,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>6441</v>
+        <v>3991</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="E154" t="n">
         <v>1</v>
@@ -4442,10 +4691,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>6505</v>
+        <v>4084</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C155" t="s">
         <v>12</v>
@@ -4459,16 +4708,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6536</v>
+        <v>4158</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C156" t="s">
         <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -4476,16 +4725,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>6543</v>
+        <v>4183</v>
       </c>
       <c r="B157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>268</v>
+        <v>13</v>
       </c>
       <c r="E157" t="n">
         <v>1</v>
@@ -4493,7 +4742,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>6754</v>
+        <v>4197</v>
       </c>
       <c r="B158" t="s">
         <v>269</v>
@@ -4502,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -4510,16 +4759,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6889</v>
+        <v>4201</v>
       </c>
       <c r="B159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>272</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
@@ -4527,16 +4776,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>6926</v>
+        <v>4540</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -4544,16 +4793,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>7012</v>
+        <v>4579</v>
       </c>
       <c r="B161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
@@ -4561,7 +4810,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>7253</v>
+        <v>4927</v>
       </c>
       <c r="B162" t="s">
         <v>275</v>
@@ -4570,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>276</v>
+        <v>13</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
@@ -4578,16 +4827,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>7798</v>
+        <v>5094</v>
       </c>
       <c r="B163" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" t="s">
         <v>277</v>
-      </c>
-      <c r="C163" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" t="s">
-        <v>278</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -4595,16 +4844,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>7834</v>
+        <v>5388</v>
       </c>
       <c r="B164" t="s">
+        <v>278</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
         <v>279</v>
-      </c>
-      <c r="C164" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" t="s">
-        <v>13</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -4612,7 +4861,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>7860</v>
+        <v>5500</v>
       </c>
       <c r="B165" t="s">
         <v>280</v>
@@ -4621,7 +4870,7 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>281</v>
+        <v>13</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
@@ -4629,16 +4878,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>7975</v>
+        <v>5529</v>
       </c>
       <c r="B166" t="s">
+        <v>281</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
         <v>282</v>
-      </c>
-      <c r="C166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" t="s">
-        <v>13</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -4646,7 +4895,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8047</v>
+        <v>5554</v>
       </c>
       <c r="B167" t="s">
         <v>283</v>
@@ -4655,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -4663,16 +4912,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8140</v>
+        <v>5730</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="E168" t="n">
         <v>1</v>
@@ -4680,16 +4929,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8304</v>
+        <v>5742</v>
       </c>
       <c r="B169" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
@@ -4697,10 +4946,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8344</v>
+        <v>5884</v>
       </c>
       <c r="B170" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -4714,10 +4963,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8386</v>
+        <v>5986</v>
       </c>
       <c r="B171" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
@@ -4731,16 +4980,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8537</v>
+        <v>6025</v>
       </c>
       <c r="B172" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -4748,16 +4997,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8558</v>
+        <v>6040</v>
       </c>
       <c r="B173" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -4765,16 +5014,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9204</v>
+        <v>6285</v>
       </c>
       <c r="B174" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E174" t="n">
         <v>1</v>
@@ -4782,16 +5031,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9585</v>
+        <v>6320</v>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -4799,16 +5048,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9615</v>
+        <v>6441</v>
       </c>
       <c r="B176" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -4816,16 +5065,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9996</v>
+        <v>6505</v>
       </c>
       <c r="B177" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
@@ -4833,7 +5082,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>10507</v>
+        <v>6536</v>
       </c>
       <c r="B178" t="s">
         <v>300</v>
@@ -4842,7 +5091,7 @@
         <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>13</v>
+        <v>301</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4850,16 +5099,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11095</v>
+        <v>6543</v>
       </c>
       <c r="B179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4867,16 +5116,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11102</v>
+        <v>6754</v>
       </c>
       <c r="B180" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C180" t="s">
         <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="E180" t="n">
         <v>1</v>
@@ -4884,16 +5133,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11118</v>
+        <v>6889</v>
       </c>
       <c r="B181" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -4901,7 +5150,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11522</v>
+        <v>6926</v>
       </c>
       <c r="B182" t="s">
         <v>306</v>
@@ -4910,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4918,16 +5167,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11782</v>
+        <v>6954</v>
       </c>
       <c r="B183" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C183" t="s">
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -4935,16 +5184,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>12068</v>
+        <v>7012</v>
       </c>
       <c r="B184" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="E184" t="n">
         <v>1</v>
@@ -4952,16 +5201,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>12112</v>
+        <v>7253</v>
       </c>
       <c r="B185" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="E185" t="n">
         <v>1</v>
@@ -4969,16 +5218,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>12153</v>
+        <v>7798</v>
       </c>
       <c r="B186" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -4986,16 +5235,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>12789</v>
+        <v>7834</v>
       </c>
       <c r="B187" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -5003,16 +5252,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>12919</v>
+        <v>7860</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
@@ -5020,16 +5269,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>13040</v>
+        <v>7954</v>
       </c>
       <c r="B189" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
@@ -5037,16 +5286,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>13274</v>
+        <v>7975</v>
       </c>
       <c r="B190" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>318</v>
+        <v>13</v>
       </c>
       <c r="E190" t="n">
         <v>1</v>
@@ -5054,10 +5303,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>13378</v>
+        <v>8047</v>
       </c>
       <c r="B191" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
@@ -5071,10 +5320,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>13459</v>
+        <v>8140</v>
       </c>
       <c r="B192" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
@@ -5088,16 +5337,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>13620</v>
+        <v>8304</v>
       </c>
       <c r="B193" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="E193" t="n">
         <v>1</v>
@@ -5105,10 +5354,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>13668</v>
+        <v>8344</v>
       </c>
       <c r="B194" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
@@ -5122,16 +5371,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>13694</v>
+        <v>8386</v>
       </c>
       <c r="B195" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>324</v>
+        <v>13</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -5139,16 +5388,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>13813</v>
+        <v>8537</v>
       </c>
       <c r="B196" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E196" t="n">
         <v>1</v>
@@ -5156,16 +5405,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>14097</v>
+        <v>8558</v>
       </c>
       <c r="B197" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -5173,16 +5422,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>14638</v>
+        <v>8603</v>
       </c>
       <c r="B198" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C198" t="s">
         <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
@@ -5190,16 +5439,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>14648</v>
+        <v>9204</v>
       </c>
       <c r="B199" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E199" t="n">
         <v>1</v>
@@ -5207,16 +5456,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>14790</v>
+        <v>9585</v>
       </c>
       <c r="B200" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5224,16 +5473,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>14793</v>
+        <v>9615</v>
       </c>
       <c r="B201" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -5241,16 +5490,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>14817</v>
+        <v>9996</v>
       </c>
       <c r="B202" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="E202" t="n">
         <v>1</v>
@@ -5258,16 +5507,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>15212</v>
+        <v>10448</v>
       </c>
       <c r="B203" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -5275,16 +5524,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>15326</v>
+        <v>10552</v>
       </c>
       <c r="B204" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="E204" t="n">
         <v>1</v>
@@ -5292,16 +5541,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>15327</v>
+        <v>11095</v>
       </c>
       <c r="B205" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -5309,16 +5558,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>15349</v>
+        <v>11102</v>
       </c>
       <c r="B206" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E206" t="n">
         <v>1</v>
@@ -5326,16 +5575,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>15766</v>
+        <v>11118</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5343,16 +5592,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>15952</v>
+        <v>11288</v>
       </c>
       <c r="B208" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
@@ -5360,10 +5609,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>16176</v>
+        <v>11365</v>
       </c>
       <c r="B209" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
@@ -5377,16 +5626,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>16324</v>
+        <v>11522</v>
       </c>
       <c r="B210" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
@@ -5394,16 +5643,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>16396</v>
+        <v>11782</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C211" t="s">
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="E211" t="n">
         <v>1</v>
@@ -5411,16 +5660,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>16669</v>
+        <v>12068</v>
       </c>
       <c r="B212" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C212" t="s">
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -5428,16 +5677,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>17104</v>
+        <v>12112</v>
       </c>
       <c r="B213" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>352</v>
+        <v>13</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
@@ -5445,16 +5694,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>17964</v>
+        <v>12153</v>
       </c>
       <c r="B214" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -5462,16 +5711,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>18106</v>
+        <v>12789</v>
       </c>
       <c r="B215" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
@@ -5479,10 +5728,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>18252</v>
+        <v>12919</v>
       </c>
       <c r="B216" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -5496,16 +5745,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>18289</v>
+        <v>13040</v>
       </c>
       <c r="B217" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E217" t="n">
         <v>1</v>
@@ -5513,16 +5762,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>18404</v>
+        <v>13274</v>
       </c>
       <c r="B218" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
@@ -5530,10 +5779,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>18486</v>
+        <v>13378</v>
       </c>
       <c r="B219" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C219" t="s">
         <v>12</v>
@@ -5547,16 +5796,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>18508</v>
+        <v>13459</v>
       </c>
       <c r="B220" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C220" t="s">
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
@@ -5564,16 +5813,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>18538</v>
+        <v>13620</v>
       </c>
       <c r="B221" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C221" t="s">
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>366</v>
+        <v>13</v>
       </c>
       <c r="E221" t="n">
         <v>1</v>
@@ -5581,16 +5830,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>18583</v>
+        <v>13668</v>
       </c>
       <c r="B222" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>368</v>
+        <v>13</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -5598,7 +5847,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>18898</v>
+        <v>13694</v>
       </c>
       <c r="B223" t="s">
         <v>369</v>
@@ -5615,7 +5864,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>18958</v>
+        <v>13792</v>
       </c>
       <c r="B224" t="s">
         <v>371</v>
@@ -5632,7 +5881,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>18968</v>
+        <v>13813</v>
       </c>
       <c r="B225" t="s">
         <v>373</v>
@@ -5641,7 +5890,7 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
@@ -5649,10 +5898,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>19011</v>
+        <v>14097</v>
       </c>
       <c r="B226" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C226" t="s">
         <v>12</v>
@@ -5666,16 +5915,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>19021</v>
+        <v>14638</v>
       </c>
       <c r="B227" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="E227" t="n">
         <v>1</v>
@@ -5683,7 +5932,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>19839</v>
+        <v>14648</v>
       </c>
       <c r="B228" t="s">
         <v>377</v>
@@ -5692,7 +5941,7 @@
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>13</v>
+        <v>378</v>
       </c>
       <c r="E228" t="n">
         <v>1</v>
@@ -5700,10 +5949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>20580</v>
+        <v>14676</v>
       </c>
       <c r="B229" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C229" t="s">
         <v>12</v>
@@ -5717,10 +5966,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>20703</v>
+        <v>14790</v>
       </c>
       <c r="B230" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
@@ -5734,16 +5983,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>21058</v>
+        <v>14793</v>
       </c>
       <c r="B231" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>381</v>
+        <v>13</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
@@ -5751,7 +6000,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>21216</v>
+        <v>14817</v>
       </c>
       <c r="B232" t="s">
         <v>382</v>
@@ -5768,7 +6017,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>21255</v>
+        <v>15082</v>
       </c>
       <c r="B233" t="s">
         <v>383</v>
@@ -5777,7 +6026,7 @@
         <v>12</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="E233" t="n">
         <v>1</v>
@@ -5785,16 +6034,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>21526</v>
+        <v>15212</v>
       </c>
       <c r="B234" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E234" t="n">
         <v>1</v>
@@ -5802,16 +6051,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>21538</v>
+        <v>15279</v>
       </c>
       <c r="B235" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>387</v>
+        <v>13</v>
       </c>
       <c r="E235" t="n">
         <v>1</v>
@@ -5819,13 +6068,13 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>21575</v>
+        <v>15326</v>
       </c>
       <c r="B236" t="s">
         <v>388</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D236" t="s">
         <v>389</v>
@@ -5836,16 +6085,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>21625</v>
+        <v>15327</v>
       </c>
       <c r="B237" t="s">
         <v>390</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>13</v>
+        <v>391</v>
       </c>
       <c r="E237" t="n">
         <v>1</v>
@@ -5853,16 +6102,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>21727</v>
+        <v>15349</v>
       </c>
       <c r="B238" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="E238" t="n">
         <v>1</v>
@@ -5870,16 +6119,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>21792</v>
+        <v>15540</v>
       </c>
       <c r="B239" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>393</v>
+        <v>13</v>
       </c>
       <c r="E239" t="n">
         <v>1</v>
@@ -5887,16 +6136,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>21793</v>
+        <v>15766</v>
       </c>
       <c r="B240" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E240" t="n">
         <v>1</v>
@@ -5904,16 +6153,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>21846</v>
+        <v>15952</v>
       </c>
       <c r="B241" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D241" t="s">
-        <v>396</v>
+        <v>13</v>
       </c>
       <c r="E241" t="n">
         <v>1</v>
@@ -5921,16 +6170,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>21974</v>
+        <v>16075</v>
       </c>
       <c r="B242" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D242" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E242" t="n">
         <v>1</v>
@@ -5938,13 +6187,13 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>22078</v>
+        <v>16111</v>
       </c>
       <c r="B243" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D243" t="s">
         <v>13</v>
@@ -5955,16 +6204,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>22162</v>
+        <v>16324</v>
       </c>
       <c r="B244" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>402</v>
       </c>
       <c r="E244" t="n">
         <v>1</v>
@@ -5972,13 +6221,13 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>22213</v>
+        <v>16362</v>
       </c>
       <c r="B245" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D245" t="s">
         <v>13</v>
@@ -5989,16 +6238,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>22255</v>
+        <v>16396</v>
       </c>
       <c r="B246" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="E246" t="n">
         <v>1</v>
@@ -6006,16 +6255,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>22323</v>
+        <v>16669</v>
       </c>
       <c r="B247" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>404</v>
+        <v>311</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -6023,16 +6272,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>23271</v>
+        <v>17104</v>
       </c>
       <c r="B248" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -6040,16 +6289,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>23426</v>
+        <v>17615</v>
       </c>
       <c r="B249" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -6057,16 +6306,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>23611</v>
+        <v>17964</v>
       </c>
       <c r="B250" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>13</v>
+        <v>412</v>
       </c>
       <c r="E250" t="n">
         <v>1</v>
@@ -6074,16 +6323,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>23758</v>
+        <v>18106</v>
       </c>
       <c r="B251" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="E251" t="n">
         <v>1</v>
@@ -6091,16 +6340,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>23987</v>
+        <v>18252</v>
       </c>
       <c r="B252" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>412</v>
+        <v>13</v>
       </c>
       <c r="E252" t="n">
         <v>1</v>
@@ -6108,16 +6357,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24026</v>
+        <v>18289</v>
       </c>
       <c r="B253" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E253" t="n">
         <v>1</v>
@@ -6125,16 +6374,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24138</v>
+        <v>18404</v>
       </c>
       <c r="B254" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E254" t="n">
         <v>1</v>
@@ -6142,16 +6391,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24151</v>
+        <v>18508</v>
       </c>
       <c r="B255" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="E255" t="n">
         <v>1</v>
@@ -6159,16 +6408,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24321</v>
+        <v>18538</v>
       </c>
       <c r="B256" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D256" t="s">
-        <v>274</v>
+        <v>423</v>
       </c>
       <c r="E256" t="n">
         <v>1</v>
@@ -6176,16 +6425,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>24364</v>
+        <v>18583</v>
       </c>
       <c r="B257" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>13</v>
+        <v>425</v>
       </c>
       <c r="E257" t="n">
         <v>1</v>
@@ -6193,16 +6442,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>24368</v>
+        <v>18898</v>
       </c>
       <c r="B258" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D258" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E258" t="n">
         <v>1</v>
@@ -6210,16 +6459,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>24904</v>
+        <v>18958</v>
       </c>
       <c r="B259" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>13</v>
+        <v>429</v>
       </c>
       <c r="E259" t="n">
         <v>1</v>
@@ -6227,16 +6476,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25214</v>
+        <v>18968</v>
       </c>
       <c r="B260" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="E260" t="n">
         <v>1</v>
@@ -6244,16 +6493,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25218</v>
+        <v>19011</v>
       </c>
       <c r="B261" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>425</v>
+        <v>13</v>
       </c>
       <c r="E261" t="n">
         <v>1</v>
@@ -6261,16 +6510,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25275</v>
+        <v>19021</v>
       </c>
       <c r="B262" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E262" t="n">
         <v>1</v>
@@ -6278,13 +6527,13 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25300</v>
+        <v>19839</v>
       </c>
       <c r="B263" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D263" t="s">
         <v>13</v>
@@ -6295,16 +6544,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25460</v>
+        <v>20178</v>
       </c>
       <c r="B264" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>430</v>
+        <v>13</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -6312,13 +6561,13 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25521</v>
+        <v>20580</v>
       </c>
       <c r="B265" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D265" t="s">
         <v>13</v>
@@ -6329,13 +6578,13 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25662</v>
+        <v>20703</v>
       </c>
       <c r="B266" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D266" t="s">
         <v>13</v>
@@ -6346,16 +6595,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>25674</v>
+        <v>21058</v>
       </c>
       <c r="B267" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>13</v>
+        <v>439</v>
       </c>
       <c r="E267" t="n">
         <v>1</v>
@@ -6363,16 +6612,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>25743</v>
+        <v>21216</v>
       </c>
       <c r="B268" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D268" t="s">
-        <v>347</v>
+        <v>13</v>
       </c>
       <c r="E268" t="n">
         <v>1</v>
@@ -6380,16 +6629,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>25897</v>
+        <v>21255</v>
       </c>
       <c r="B269" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D269" t="s">
-        <v>436</v>
+        <v>13</v>
       </c>
       <c r="E269" t="n">
         <v>1</v>
@@ -6397,16 +6646,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>25913</v>
+        <v>21526</v>
       </c>
       <c r="B270" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C270" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D270" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E270" t="n">
         <v>1</v>
@@ -6414,16 +6663,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>25930</v>
+        <v>21538</v>
       </c>
       <c r="B271" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D271" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E271" t="n">
         <v>1</v>
@@ -6431,16 +6680,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26158</v>
+        <v>21575</v>
       </c>
       <c r="B272" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C272" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E272" t="n">
         <v>1</v>
@@ -6448,16 +6697,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26233</v>
+        <v>21625</v>
       </c>
       <c r="B273" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D273" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -6465,16 +6714,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26333</v>
+        <v>21727</v>
       </c>
       <c r="B274" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C274" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="D274" t="s">
-        <v>445</v>
+        <v>13</v>
       </c>
       <c r="E274" t="n">
         <v>1</v>
@@ -6482,16 +6731,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26447</v>
+        <v>21765</v>
       </c>
       <c r="B275" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C275" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="D275" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E275" t="n">
         <v>1</v>
@@ -6499,16 +6748,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26460</v>
+        <v>21792</v>
       </c>
       <c r="B276" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C276" t="s">
-        <v>170</v>
+        <v>6</v>
       </c>
       <c r="D276" t="s">
-        <v>13</v>
+        <v>453</v>
       </c>
       <c r="E276" t="n">
         <v>1</v>
@@ -6516,16 +6765,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>26660</v>
+        <v>21793</v>
       </c>
       <c r="B277" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C277" t="s">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="D277" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -6533,16 +6782,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>26690</v>
+        <v>21974</v>
       </c>
       <c r="B278" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C278" t="s">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="E278" t="n">
         <v>1</v>
@@ -6550,16 +6799,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>26842</v>
+        <v>21991</v>
       </c>
       <c r="B279" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C279" t="s">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E279" t="n">
         <v>1</v>
@@ -6567,16 +6816,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>26923</v>
+        <v>22078</v>
       </c>
       <c r="B280" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C280" t="s">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="E280" t="n">
         <v>1</v>
@@ -6584,13 +6833,13 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27219</v>
+        <v>22213</v>
       </c>
       <c r="B281" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C281" t="s">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="D281" t="s">
         <v>13</v>
@@ -6601,16 +6850,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27230</v>
+        <v>22255</v>
       </c>
       <c r="B282" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C282" t="s">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>460</v>
+        <v>13</v>
       </c>
       <c r="E282" t="n">
         <v>1</v>
@@ -6618,16 +6867,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27498</v>
+        <v>22323</v>
       </c>
       <c r="B283" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C283" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>13</v>
+        <v>463</v>
       </c>
       <c r="E283" t="n">
         <v>1</v>
@@ -6635,16 +6884,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27725</v>
+        <v>22992</v>
       </c>
       <c r="B284" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C284" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="D284" t="s">
-        <v>274</v>
+        <v>465</v>
       </c>
       <c r="E284" t="n">
         <v>1</v>
@@ -6652,16 +6901,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27739</v>
+        <v>23063</v>
       </c>
       <c r="B285" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C285" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="D285" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E285" t="n">
         <v>1</v>
@@ -6669,16 +6918,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27792</v>
+        <v>23426</v>
       </c>
       <c r="B286" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C286" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D286" t="s">
-        <v>347</v>
+        <v>469</v>
       </c>
       <c r="E286" t="n">
         <v>1</v>
@@ -6686,16 +6935,16 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>27798</v>
+        <v>23611</v>
       </c>
       <c r="B287" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C287" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D287" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E287" t="n">
         <v>1</v>
@@ -6703,16 +6952,16 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28005</v>
+        <v>23709</v>
       </c>
       <c r="B288" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C288" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D288" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E288" t="n">
         <v>1</v>
@@ -6720,16 +6969,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28262</v>
+        <v>23758</v>
       </c>
       <c r="B289" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D289" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E289" t="n">
         <v>1</v>
@@ -6737,16 +6986,16 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28386</v>
+        <v>23987</v>
       </c>
       <c r="B290" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C290" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D290" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E290" t="n">
         <v>1</v>
@@ -6754,16 +7003,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28417</v>
+        <v>24026</v>
       </c>
       <c r="B291" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C291" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D291" t="s">
-        <v>13</v>
+        <v>458</v>
       </c>
       <c r="E291" t="n">
         <v>1</v>
@@ -6771,16 +7020,16 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>28444</v>
+        <v>24138</v>
       </c>
       <c r="B292" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C292" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D292" t="s">
-        <v>13</v>
+        <v>478</v>
       </c>
       <c r="E292" t="n">
         <v>1</v>
@@ -6788,16 +7037,16 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28817</v>
+        <v>24151</v>
       </c>
       <c r="B293" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C293" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D293" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="E293" t="n">
         <v>1</v>
@@ -6805,16 +7054,16 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28829</v>
+        <v>24321</v>
       </c>
       <c r="B294" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C294" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D294" t="s">
-        <v>478</v>
+        <v>311</v>
       </c>
       <c r="E294" t="n">
         <v>1</v>
@@ -6822,16 +7071,16 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28866</v>
+        <v>24364</v>
       </c>
       <c r="B295" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C295" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D295" t="s">
-        <v>480</v>
+        <v>13</v>
       </c>
       <c r="E295" t="n">
         <v>1</v>
@@ -6839,16 +7088,16 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28887</v>
+        <v>24368</v>
       </c>
       <c r="B296" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C296" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D296" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E296" t="n">
         <v>1</v>
@@ -6856,16 +7105,16 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>28905</v>
+        <v>24382</v>
       </c>
       <c r="B297" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C297" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D297" t="s">
-        <v>484</v>
+        <v>13</v>
       </c>
       <c r="E297" t="n">
         <v>1</v>
@@ -6873,13 +7122,13 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29160</v>
+        <v>24506</v>
       </c>
       <c r="B298" t="s">
         <v>485</v>
       </c>
       <c r="C298" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D298" t="s">
         <v>486</v>
@@ -6890,13 +7139,13 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>29200</v>
+        <v>24904</v>
       </c>
       <c r="B299" t="s">
         <v>487</v>
       </c>
       <c r="C299" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D299" t="s">
         <v>13</v>
@@ -6907,13 +7156,13 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29439</v>
+        <v>24914</v>
       </c>
       <c r="B300" t="s">
         <v>488</v>
       </c>
       <c r="C300" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D300" t="s">
         <v>489</v>
@@ -6924,16 +7173,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>29648</v>
+        <v>25214</v>
       </c>
       <c r="B301" t="s">
         <v>490</v>
       </c>
       <c r="C301" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="D301" t="s">
-        <v>491</v>
+        <v>13</v>
       </c>
       <c r="E301" t="n">
         <v>1</v>
@@ -6941,18 +7190,885 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
+        <v>25218</v>
+      </c>
+      <c r="B302" t="s">
+        <v>491</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>492</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>25275</v>
+      </c>
+      <c r="B303" t="s">
+        <v>493</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>494</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>25300</v>
+      </c>
+      <c r="B304" t="s">
+        <v>495</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>25437</v>
+      </c>
+      <c r="B305" t="s">
+        <v>496</v>
+      </c>
+      <c r="C305" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" t="s">
+        <v>497</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>25460</v>
+      </c>
+      <c r="B306" t="s">
+        <v>498</v>
+      </c>
+      <c r="C306" t="s">
+        <v>22</v>
+      </c>
+      <c r="D306" t="s">
+        <v>499</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>25521</v>
+      </c>
+      <c r="B307" t="s">
+        <v>500</v>
+      </c>
+      <c r="C307" t="s">
+        <v>22</v>
+      </c>
+      <c r="D307" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>25662</v>
+      </c>
+      <c r="B308" t="s">
+        <v>501</v>
+      </c>
+      <c r="C308" t="s">
+        <v>22</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>25674</v>
+      </c>
+      <c r="B309" t="s">
+        <v>502</v>
+      </c>
+      <c r="C309" t="s">
+        <v>22</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>25743</v>
+      </c>
+      <c r="B310" t="s">
+        <v>503</v>
+      </c>
+      <c r="C310" t="s">
+        <v>22</v>
+      </c>
+      <c r="D310" t="s">
+        <v>402</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>25897</v>
+      </c>
+      <c r="B311" t="s">
+        <v>504</v>
+      </c>
+      <c r="C311" t="s">
+        <v>22</v>
+      </c>
+      <c r="D311" t="s">
+        <v>505</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>25930</v>
+      </c>
+      <c r="B312" t="s">
+        <v>506</v>
+      </c>
+      <c r="C312" t="s">
+        <v>22</v>
+      </c>
+      <c r="D312" t="s">
+        <v>507</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>26158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>508</v>
+      </c>
+      <c r="C313" t="s">
+        <v>22</v>
+      </c>
+      <c r="D313" t="s">
+        <v>509</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>26233</v>
+      </c>
+      <c r="B314" t="s">
+        <v>510</v>
+      </c>
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>26333</v>
+      </c>
+      <c r="B315" t="s">
+        <v>511</v>
+      </c>
+      <c r="C315" t="s">
+        <v>198</v>
+      </c>
+      <c r="D315" t="s">
+        <v>512</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>26660</v>
+      </c>
+      <c r="B316" t="s">
+        <v>513</v>
+      </c>
+      <c r="C316" t="s">
+        <v>514</v>
+      </c>
+      <c r="D316" t="s">
+        <v>515</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>26690</v>
+      </c>
+      <c r="B317" t="s">
+        <v>516</v>
+      </c>
+      <c r="C317" t="s">
+        <v>514</v>
+      </c>
+      <c r="D317" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>26842</v>
+      </c>
+      <c r="B318" t="s">
+        <v>517</v>
+      </c>
+      <c r="C318" t="s">
+        <v>514</v>
+      </c>
+      <c r="D318" t="s">
+        <v>518</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>26923</v>
+      </c>
+      <c r="B319" t="s">
+        <v>519</v>
+      </c>
+      <c r="C319" t="s">
+        <v>514</v>
+      </c>
+      <c r="D319" t="s">
+        <v>520</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>27219</v>
+      </c>
+      <c r="B320" t="s">
+        <v>521</v>
+      </c>
+      <c r="C320" t="s">
+        <v>522</v>
+      </c>
+      <c r="D320" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>27230</v>
+      </c>
+      <c r="B321" t="s">
+        <v>523</v>
+      </c>
+      <c r="C321" t="s">
+        <v>522</v>
+      </c>
+      <c r="D321" t="s">
+        <v>524</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>27498</v>
+      </c>
+      <c r="B322" t="s">
+        <v>525</v>
+      </c>
+      <c r="C322" t="s">
+        <v>526</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>27725</v>
+      </c>
+      <c r="B323" t="s">
+        <v>527</v>
+      </c>
+      <c r="C323" t="s">
+        <v>526</v>
+      </c>
+      <c r="D323" t="s">
+        <v>311</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>27739</v>
+      </c>
+      <c r="B324" t="s">
+        <v>528</v>
+      </c>
+      <c r="C324" t="s">
+        <v>526</v>
+      </c>
+      <c r="D324" t="s">
+        <v>529</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>27792</v>
+      </c>
+      <c r="B325" t="s">
+        <v>530</v>
+      </c>
+      <c r="C325" t="s">
+        <v>9</v>
+      </c>
+      <c r="D325" t="s">
+        <v>402</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>27798</v>
+      </c>
+      <c r="B326" t="s">
+        <v>531</v>
+      </c>
+      <c r="C326" t="s">
+        <v>9</v>
+      </c>
+      <c r="D326" t="s">
+        <v>10</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>27972</v>
+      </c>
+      <c r="B327" t="s">
+        <v>532</v>
+      </c>
+      <c r="C327" t="s">
+        <v>17</v>
+      </c>
+      <c r="D327" t="s">
+        <v>533</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>28005</v>
+      </c>
+      <c r="B328" t="s">
+        <v>534</v>
+      </c>
+      <c r="C328" t="s">
+        <v>17</v>
+      </c>
+      <c r="D328" t="s">
+        <v>535</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>28048</v>
+      </c>
+      <c r="B329" t="s">
+        <v>536</v>
+      </c>
+      <c r="C329" t="s">
+        <v>17</v>
+      </c>
+      <c r="D329" t="s">
+        <v>537</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>28111</v>
+      </c>
+      <c r="B330" t="s">
+        <v>538</v>
+      </c>
+      <c r="C330" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330" t="s">
+        <v>539</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>28216</v>
+      </c>
+      <c r="B331" t="s">
+        <v>540</v>
+      </c>
+      <c r="C331" t="s">
+        <v>17</v>
+      </c>
+      <c r="D331" t="s">
+        <v>541</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>28262</v>
+      </c>
+      <c r="B332" t="s">
+        <v>542</v>
+      </c>
+      <c r="C332" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>28271</v>
+      </c>
+      <c r="B333" t="s">
+        <v>543</v>
+      </c>
+      <c r="C333" t="s">
+        <v>9</v>
+      </c>
+      <c r="D333" t="s">
+        <v>311</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>28280</v>
+      </c>
+      <c r="B334" t="s">
+        <v>544</v>
+      </c>
+      <c r="C334" t="s">
+        <v>27</v>
+      </c>
+      <c r="D334" t="s">
+        <v>545</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>28281</v>
+      </c>
+      <c r="B335" t="s">
+        <v>546</v>
+      </c>
+      <c r="C335" t="s">
+        <v>27</v>
+      </c>
+      <c r="D335" t="s">
+        <v>545</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>28282</v>
+      </c>
+      <c r="B336" t="s">
+        <v>547</v>
+      </c>
+      <c r="C336" t="s">
+        <v>27</v>
+      </c>
+      <c r="D336" t="s">
+        <v>545</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>28386</v>
+      </c>
+      <c r="B337" t="s">
+        <v>548</v>
+      </c>
+      <c r="C337" t="s">
+        <v>27</v>
+      </c>
+      <c r="D337" t="s">
+        <v>549</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>28417</v>
+      </c>
+      <c r="B338" t="s">
+        <v>550</v>
+      </c>
+      <c r="C338" t="s">
+        <v>27</v>
+      </c>
+      <c r="D338" t="s">
+        <v>13</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>28435</v>
+      </c>
+      <c r="B339" t="s">
+        <v>551</v>
+      </c>
+      <c r="C339" t="s">
+        <v>27</v>
+      </c>
+      <c r="D339" t="s">
+        <v>13</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>28444</v>
+      </c>
+      <c r="B340" t="s">
+        <v>552</v>
+      </c>
+      <c r="C340" t="s">
+        <v>27</v>
+      </c>
+      <c r="D340" t="s">
+        <v>13</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>28715</v>
+      </c>
+      <c r="B341" t="s">
+        <v>553</v>
+      </c>
+      <c r="C341" t="s">
+        <v>27</v>
+      </c>
+      <c r="D341" t="s">
+        <v>554</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>28817</v>
+      </c>
+      <c r="B342" t="s">
+        <v>555</v>
+      </c>
+      <c r="C342" t="s">
+        <v>27</v>
+      </c>
+      <c r="D342" t="s">
+        <v>556</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>28829</v>
+      </c>
+      <c r="B343" t="s">
+        <v>557</v>
+      </c>
+      <c r="C343" t="s">
+        <v>27</v>
+      </c>
+      <c r="D343" t="s">
+        <v>558</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>28866</v>
+      </c>
+      <c r="B344" t="s">
+        <v>559</v>
+      </c>
+      <c r="C344" t="s">
+        <v>27</v>
+      </c>
+      <c r="D344" t="s">
+        <v>560</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>28887</v>
+      </c>
+      <c r="B345" t="s">
+        <v>561</v>
+      </c>
+      <c r="C345" t="s">
+        <v>27</v>
+      </c>
+      <c r="D345" t="s">
+        <v>562</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>28905</v>
+      </c>
+      <c r="B346" t="s">
+        <v>563</v>
+      </c>
+      <c r="C346" t="s">
+        <v>27</v>
+      </c>
+      <c r="D346" t="s">
+        <v>564</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>28936</v>
+      </c>
+      <c r="B347" t="s">
+        <v>565</v>
+      </c>
+      <c r="C347" t="s">
+        <v>27</v>
+      </c>
+      <c r="D347" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>28977</v>
+      </c>
+      <c r="B348" t="s">
+        <v>566</v>
+      </c>
+      <c r="C348" t="s">
+        <v>27</v>
+      </c>
+      <c r="D348" t="s">
+        <v>567</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>29160</v>
+      </c>
+      <c r="B349" t="s">
+        <v>568</v>
+      </c>
+      <c r="C349" t="s">
+        <v>27</v>
+      </c>
+      <c r="D349" t="s">
+        <v>569</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>29200</v>
+      </c>
+      <c r="B350" t="s">
+        <v>570</v>
+      </c>
+      <c r="C350" t="s">
+        <v>27</v>
+      </c>
+      <c r="D350" t="s">
+        <v>13</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>29439</v>
+      </c>
+      <c r="B351" t="s">
+        <v>571</v>
+      </c>
+      <c r="C351" t="s">
+        <v>27</v>
+      </c>
+      <c r="D351" t="s">
+        <v>572</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>29648</v>
+      </c>
+      <c r="B352" t="s">
+        <v>573</v>
+      </c>
+      <c r="C352" t="s">
+        <v>150</v>
+      </c>
+      <c r="D352" t="s">
+        <v>574</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
         <v>29836</v>
       </c>
-      <c r="B302" t="s">
-        <v>492</v>
-      </c>
-      <c r="C302" t="s">
+      <c r="B353" t="s">
+        <v>575</v>
+      </c>
+      <c r="C353" t="s">
         <v>9</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D353" t="s">
         <v>10</v>
       </c>
-      <c r="E302" t="n">
+      <c r="E353" t="n">
         <v>1</v>
       </c>
     </row>
